--- a/Element Profiles/Fixed Camera-Element_Profile.xlsx
+++ b/Element Profiles/Fixed Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F910637-5FBB-9F41-88FD-0CACCFC19F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E76F5B-369C-8446-AC26-7F8B15E3805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="349">
   <si>
     <t>Export date: Jun 14, 2023</t>
   </si>
@@ -1078,6 +1078,9 @@
   <si>
     <t>CD32-E</t>
   </si>
+  <si>
+    <t>CM42</t>
+  </si>
 </sst>
 </file>
 
@@ -1280,11 +1283,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,6 +1290,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1602,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1638,1015 +1641,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="14"/>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14"/>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14"/>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
-      <c r="NC1" s="14"/>
-      <c r="ND1" s="14"/>
-      <c r="NE1" s="14"/>
-      <c r="NF1" s="14"/>
-      <c r="NG1" s="14"/>
-      <c r="NH1" s="14"/>
-      <c r="NI1" s="14"/>
-      <c r="NJ1" s="14"/>
-      <c r="NK1" s="14"/>
-      <c r="NL1" s="14"/>
-      <c r="NM1" s="14"/>
-      <c r="NN1" s="14"/>
-      <c r="NO1" s="14"/>
-      <c r="NP1" s="14"/>
-      <c r="NQ1" s="14"/>
-      <c r="NR1" s="14"/>
-      <c r="NS1" s="14"/>
-      <c r="NT1" s="14"/>
-      <c r="NU1" s="14"/>
-      <c r="NV1" s="14"/>
-      <c r="NW1" s="14"/>
-      <c r="NX1" s="14"/>
-      <c r="NY1" s="14"/>
-      <c r="NZ1" s="14"/>
-      <c r="OA1" s="14"/>
-      <c r="OB1" s="14"/>
-      <c r="OC1" s="14"/>
-      <c r="OD1" s="14"/>
-      <c r="OE1" s="14"/>
-      <c r="OF1" s="14"/>
-      <c r="OG1" s="14"/>
-      <c r="OH1" s="14"/>
-      <c r="OI1" s="14"/>
-      <c r="OJ1" s="14"/>
-      <c r="OK1" s="14"/>
-      <c r="OL1" s="14"/>
-      <c r="OM1" s="14"/>
-      <c r="ON1" s="14"/>
-      <c r="OO1" s="14"/>
-      <c r="OP1" s="14"/>
-      <c r="OQ1" s="14"/>
-      <c r="OR1" s="14"/>
-      <c r="OS1" s="14"/>
-      <c r="OT1" s="14"/>
-      <c r="OU1" s="14"/>
-      <c r="OV1" s="14"/>
-      <c r="OW1" s="14"/>
-      <c r="OX1" s="14"/>
-      <c r="OY1" s="14"/>
-      <c r="OZ1" s="14"/>
-      <c r="PA1" s="14"/>
-      <c r="PB1" s="14"/>
-      <c r="PC1" s="14"/>
-      <c r="PD1" s="14"/>
-      <c r="PE1" s="14"/>
-      <c r="PF1" s="14"/>
-      <c r="PG1" s="14"/>
-      <c r="PH1" s="14"/>
-      <c r="PI1" s="14"/>
-      <c r="PJ1" s="14"/>
-      <c r="PK1" s="14"/>
-      <c r="PL1" s="14"/>
-      <c r="PM1" s="14"/>
-      <c r="PN1" s="14"/>
-      <c r="PO1" s="14"/>
-      <c r="PP1" s="14"/>
-      <c r="PQ1" s="14"/>
-      <c r="PR1" s="14"/>
-      <c r="PS1" s="14"/>
-      <c r="PT1" s="14"/>
-      <c r="PU1" s="14"/>
-      <c r="PV1" s="14"/>
-      <c r="PW1" s="14"/>
-      <c r="PX1" s="14"/>
-      <c r="PY1" s="14"/>
-      <c r="PZ1" s="14"/>
-      <c r="QA1" s="14"/>
-      <c r="QB1" s="14"/>
-      <c r="QC1" s="14"/>
-      <c r="QD1" s="14"/>
-      <c r="QE1" s="14"/>
-      <c r="QF1" s="14"/>
-      <c r="QG1" s="14"/>
-      <c r="QH1" s="14"/>
-      <c r="QI1" s="14"/>
-      <c r="QJ1" s="14"/>
-      <c r="QK1" s="14"/>
-      <c r="QL1" s="14"/>
-      <c r="QM1" s="14"/>
-      <c r="QN1" s="14"/>
-      <c r="QO1" s="14"/>
-      <c r="QP1" s="14"/>
-      <c r="QQ1" s="14"/>
-      <c r="QR1" s="14"/>
-      <c r="QS1" s="14"/>
-      <c r="QT1" s="14"/>
-      <c r="QU1" s="14"/>
-      <c r="QV1" s="14"/>
-      <c r="QW1" s="14"/>
-      <c r="QX1" s="14"/>
-      <c r="QY1" s="14"/>
-      <c r="QZ1" s="14"/>
-      <c r="RA1" s="14"/>
-      <c r="RB1" s="14"/>
-      <c r="RC1" s="14"/>
-      <c r="RD1" s="14"/>
-      <c r="RE1" s="14"/>
-      <c r="RF1" s="14"/>
-      <c r="RG1" s="14"/>
-      <c r="RH1" s="14"/>
-      <c r="RI1" s="14"/>
-      <c r="RJ1" s="14"/>
-      <c r="RK1" s="14"/>
-      <c r="RL1" s="14"/>
-      <c r="RM1" s="14"/>
-      <c r="RN1" s="14"/>
-      <c r="RO1" s="14"/>
-      <c r="RP1" s="14"/>
-      <c r="RQ1" s="14"/>
-      <c r="RR1" s="14"/>
-      <c r="RS1" s="14"/>
-      <c r="RT1" s="14"/>
-      <c r="RU1" s="14"/>
-      <c r="RV1" s="14"/>
-      <c r="RW1" s="14"/>
-      <c r="RX1" s="14"/>
-      <c r="RY1" s="14"/>
-      <c r="RZ1" s="14"/>
-      <c r="SA1" s="14"/>
-      <c r="SB1" s="14"/>
-      <c r="SC1" s="14"/>
-      <c r="SD1" s="14"/>
-      <c r="SE1" s="14"/>
-      <c r="SF1" s="14"/>
-      <c r="SG1" s="14"/>
-      <c r="SH1" s="14"/>
-      <c r="SI1" s="14"/>
-      <c r="SJ1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="18"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="14"/>
-      <c r="NS2" s="14"/>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="14"/>
-      <c r="NV2" s="14"/>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="14"/>
-      <c r="NY2" s="14"/>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="14"/>
-      <c r="OB2" s="14"/>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="14"/>
-      <c r="OE2" s="14"/>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="14"/>
-      <c r="OH2" s="14"/>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="14"/>
-      <c r="OK2" s="14"/>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="14"/>
-      <c r="ON2" s="14"/>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="14"/>
-      <c r="OQ2" s="14"/>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="14"/>
-      <c r="OT2" s="14"/>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="14"/>
-      <c r="OW2" s="14"/>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="14"/>
-      <c r="OZ2" s="14"/>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="14"/>
-      <c r="PC2" s="14"/>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="14"/>
-      <c r="PF2" s="14"/>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="14"/>
-      <c r="PI2" s="14"/>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="14"/>
-      <c r="PL2" s="14"/>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="14"/>
-      <c r="PO2" s="14"/>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="14"/>
-      <c r="PR2" s="14"/>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="14"/>
-      <c r="PU2" s="14"/>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="14"/>
-      <c r="PX2" s="14"/>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="14"/>
-      <c r="QA2" s="14"/>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="14"/>
-      <c r="QD2" s="14"/>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="14"/>
-      <c r="QG2" s="14"/>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="14"/>
-      <c r="QJ2" s="14"/>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="14"/>
-      <c r="QM2" s="14"/>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="14"/>
-      <c r="QP2" s="14"/>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="14"/>
-      <c r="QS2" s="14"/>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="14"/>
-      <c r="QV2" s="14"/>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="14"/>
-      <c r="QY2" s="14"/>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="14"/>
-      <c r="RB2" s="14"/>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="14"/>
-      <c r="RE2" s="14"/>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="14"/>
-      <c r="RH2" s="14"/>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="14"/>
-      <c r="RK2" s="14"/>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="14"/>
-      <c r="RN2" s="14"/>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="14"/>
-      <c r="RQ2" s="14"/>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="14"/>
-      <c r="RT2" s="14"/>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="14"/>
-      <c r="RW2" s="14"/>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="14"/>
-      <c r="RZ2" s="14"/>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="14"/>
-      <c r="SC2" s="14"/>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="14"/>
-      <c r="SF2" s="14"/>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="14"/>
-      <c r="SI2" s="14"/>
-      <c r="SJ2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="17"/>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="17"/>
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="17"/>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="17"/>
+      <c r="EH2" s="17"/>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="17"/>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="17"/>
+      <c r="EX2" s="17"/>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="17"/>
+      <c r="FF2" s="17"/>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="17"/>
+      <c r="FN2" s="17"/>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="17"/>
+      <c r="FV2" s="17"/>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="17"/>
+      <c r="GD2" s="17"/>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="17"/>
+      <c r="GL2" s="17"/>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="17"/>
+      <c r="GT2" s="17"/>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="17"/>
+      <c r="HB2" s="17"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="17"/>
+      <c r="HJ2" s="17"/>
+      <c r="HK2" s="17"/>
+      <c r="HL2" s="17"/>
+      <c r="HM2" s="17"/>
+      <c r="HN2" s="17"/>
+      <c r="HO2" s="17"/>
+      <c r="HP2" s="17"/>
+      <c r="HQ2" s="17"/>
+      <c r="HR2" s="17"/>
+      <c r="HS2" s="17"/>
+      <c r="HT2" s="17"/>
+      <c r="HU2" s="17"/>
+      <c r="HV2" s="17"/>
+      <c r="HW2" s="17"/>
+      <c r="HX2" s="17"/>
+      <c r="HY2" s="17"/>
+      <c r="HZ2" s="17"/>
+      <c r="IA2" s="17"/>
+      <c r="IB2" s="17"/>
+      <c r="IC2" s="17"/>
+      <c r="ID2" s="17"/>
+      <c r="IE2" s="17"/>
+      <c r="IF2" s="17"/>
+      <c r="IG2" s="17"/>
+      <c r="IH2" s="17"/>
+      <c r="II2" s="17"/>
+      <c r="IJ2" s="17"/>
+      <c r="IK2" s="17"/>
+      <c r="IL2" s="17"/>
+      <c r="IM2" s="17"/>
+      <c r="IN2" s="17"/>
+      <c r="IO2" s="17"/>
+      <c r="IP2" s="17"/>
+      <c r="IQ2" s="17"/>
+      <c r="IR2" s="17"/>
+      <c r="IS2" s="17"/>
+      <c r="IT2" s="17"/>
+      <c r="IU2" s="17"/>
+      <c r="IV2" s="17"/>
+      <c r="IW2" s="17"/>
+      <c r="IX2" s="17"/>
+      <c r="IY2" s="17"/>
+      <c r="IZ2" s="17"/>
+      <c r="JA2" s="17"/>
+      <c r="JB2" s="17"/>
+      <c r="JC2" s="17"/>
+      <c r="JD2" s="17"/>
+      <c r="JE2" s="17"/>
+      <c r="JF2" s="17"/>
+      <c r="JG2" s="17"/>
+      <c r="JH2" s="17"/>
+      <c r="JI2" s="17"/>
+      <c r="JJ2" s="17"/>
+      <c r="JK2" s="17"/>
+      <c r="JL2" s="17"/>
+      <c r="JM2" s="17"/>
+      <c r="JN2" s="17"/>
+      <c r="JO2" s="17"/>
+      <c r="JP2" s="17"/>
+      <c r="JQ2" s="17"/>
+      <c r="JR2" s="17"/>
+      <c r="JS2" s="17"/>
+      <c r="JT2" s="17"/>
+      <c r="JU2" s="17"/>
+      <c r="JV2" s="17"/>
+      <c r="JW2" s="17"/>
+      <c r="JX2" s="17"/>
+      <c r="JY2" s="17"/>
+      <c r="JZ2" s="17"/>
+      <c r="KA2" s="17"/>
+      <c r="KB2" s="17"/>
+      <c r="KC2" s="17"/>
+      <c r="KD2" s="17"/>
+      <c r="KE2" s="17"/>
+      <c r="KF2" s="17"/>
+      <c r="KG2" s="17"/>
+      <c r="KH2" s="17"/>
+      <c r="KI2" s="17"/>
+      <c r="KJ2" s="17"/>
+      <c r="KK2" s="17"/>
+      <c r="KL2" s="17"/>
+      <c r="KM2" s="17"/>
+      <c r="KN2" s="17"/>
+      <c r="KO2" s="17"/>
+      <c r="KP2" s="17"/>
+      <c r="KQ2" s="17"/>
+      <c r="KR2" s="17"/>
+      <c r="KS2" s="17"/>
+      <c r="KT2" s="17"/>
+      <c r="KU2" s="17"/>
+      <c r="KV2" s="17"/>
+      <c r="KW2" s="17"/>
+      <c r="KX2" s="17"/>
+      <c r="KY2" s="17"/>
+      <c r="KZ2" s="17"/>
+      <c r="LA2" s="17"/>
+      <c r="LB2" s="17"/>
+      <c r="LC2" s="17"/>
+      <c r="LD2" s="17"/>
+      <c r="LE2" s="17"/>
+      <c r="LF2" s="17"/>
+      <c r="LG2" s="17"/>
+      <c r="LH2" s="17"/>
+      <c r="LI2" s="17"/>
+      <c r="LJ2" s="17"/>
+      <c r="LK2" s="17"/>
+      <c r="LL2" s="17"/>
+      <c r="LM2" s="17"/>
+      <c r="LN2" s="17"/>
+      <c r="LO2" s="17"/>
+      <c r="LP2" s="17"/>
+      <c r="LQ2" s="17"/>
+      <c r="LR2" s="17"/>
+      <c r="LS2" s="17"/>
+      <c r="LT2" s="17"/>
+      <c r="LU2" s="17"/>
+      <c r="LV2" s="17"/>
+      <c r="LW2" s="17"/>
+      <c r="LX2" s="17"/>
+      <c r="LY2" s="17"/>
+      <c r="LZ2" s="17"/>
+      <c r="MA2" s="17"/>
+      <c r="MB2" s="17"/>
+      <c r="MC2" s="17"/>
+      <c r="MD2" s="17"/>
+      <c r="ME2" s="17"/>
+      <c r="MF2" s="17"/>
+      <c r="MG2" s="17"/>
+      <c r="MH2" s="17"/>
+      <c r="MI2" s="17"/>
+      <c r="MJ2" s="17"/>
+      <c r="MK2" s="17"/>
+      <c r="ML2" s="17"/>
+      <c r="MM2" s="17"/>
+      <c r="MN2" s="17"/>
+      <c r="MO2" s="17"/>
+      <c r="MP2" s="17"/>
+      <c r="MQ2" s="17"/>
+      <c r="MR2" s="17"/>
+      <c r="MS2" s="17"/>
+      <c r="MT2" s="17"/>
+      <c r="MU2" s="17"/>
+      <c r="MV2" s="17"/>
+      <c r="MW2" s="17"/>
+      <c r="MX2" s="17"/>
+      <c r="MY2" s="17"/>
+      <c r="MZ2" s="17"/>
+      <c r="NA2" s="17"/>
+      <c r="NB2" s="17"/>
+      <c r="NC2" s="17"/>
+      <c r="ND2" s="17"/>
+      <c r="NE2" s="17"/>
+      <c r="NF2" s="17"/>
+      <c r="NG2" s="17"/>
+      <c r="NH2" s="17"/>
+      <c r="NI2" s="17"/>
+      <c r="NJ2" s="17"/>
+      <c r="NK2" s="17"/>
+      <c r="NL2" s="17"/>
+      <c r="NM2" s="17"/>
+      <c r="NN2" s="17"/>
+      <c r="NO2" s="17"/>
+      <c r="NP2" s="17"/>
+      <c r="NQ2" s="17"/>
+      <c r="NR2" s="17"/>
+      <c r="NS2" s="17"/>
+      <c r="NT2" s="17"/>
+      <c r="NU2" s="17"/>
+      <c r="NV2" s="17"/>
+      <c r="NW2" s="17"/>
+      <c r="NX2" s="17"/>
+      <c r="NY2" s="17"/>
+      <c r="NZ2" s="17"/>
+      <c r="OA2" s="17"/>
+      <c r="OB2" s="17"/>
+      <c r="OC2" s="17"/>
+      <c r="OD2" s="17"/>
+      <c r="OE2" s="17"/>
+      <c r="OF2" s="17"/>
+      <c r="OG2" s="17"/>
+      <c r="OH2" s="17"/>
+      <c r="OI2" s="17"/>
+      <c r="OJ2" s="17"/>
+      <c r="OK2" s="17"/>
+      <c r="OL2" s="17"/>
+      <c r="OM2" s="17"/>
+      <c r="ON2" s="17"/>
+      <c r="OO2" s="17"/>
+      <c r="OP2" s="17"/>
+      <c r="OQ2" s="17"/>
+      <c r="OR2" s="17"/>
+      <c r="OS2" s="17"/>
+      <c r="OT2" s="17"/>
+      <c r="OU2" s="17"/>
+      <c r="OV2" s="17"/>
+      <c r="OW2" s="17"/>
+      <c r="OX2" s="17"/>
+      <c r="OY2" s="17"/>
+      <c r="OZ2" s="17"/>
+      <c r="PA2" s="17"/>
+      <c r="PB2" s="17"/>
+      <c r="PC2" s="17"/>
+      <c r="PD2" s="17"/>
+      <c r="PE2" s="17"/>
+      <c r="PF2" s="17"/>
+      <c r="PG2" s="17"/>
+      <c r="PH2" s="17"/>
+      <c r="PI2" s="17"/>
+      <c r="PJ2" s="17"/>
+      <c r="PK2" s="17"/>
+      <c r="PL2" s="17"/>
+      <c r="PM2" s="17"/>
+      <c r="PN2" s="17"/>
+      <c r="PO2" s="17"/>
+      <c r="PP2" s="17"/>
+      <c r="PQ2" s="17"/>
+      <c r="PR2" s="17"/>
+      <c r="PS2" s="17"/>
+      <c r="PT2" s="17"/>
+      <c r="PU2" s="17"/>
+      <c r="PV2" s="17"/>
+      <c r="PW2" s="17"/>
+      <c r="PX2" s="17"/>
+      <c r="PY2" s="17"/>
+      <c r="PZ2" s="17"/>
+      <c r="QA2" s="17"/>
+      <c r="QB2" s="17"/>
+      <c r="QC2" s="17"/>
+      <c r="QD2" s="17"/>
+      <c r="QE2" s="17"/>
+      <c r="QF2" s="17"/>
+      <c r="QG2" s="17"/>
+      <c r="QH2" s="17"/>
+      <c r="QI2" s="17"/>
+      <c r="QJ2" s="17"/>
+      <c r="QK2" s="17"/>
+      <c r="QL2" s="17"/>
+      <c r="QM2" s="17"/>
+      <c r="QN2" s="17"/>
+      <c r="QO2" s="17"/>
+      <c r="QP2" s="17"/>
+      <c r="QQ2" s="17"/>
+      <c r="QR2" s="17"/>
+      <c r="QS2" s="17"/>
+      <c r="QT2" s="17"/>
+      <c r="QU2" s="17"/>
+      <c r="QV2" s="17"/>
+      <c r="QW2" s="17"/>
+      <c r="QX2" s="17"/>
+      <c r="QY2" s="17"/>
+      <c r="QZ2" s="17"/>
+      <c r="RA2" s="17"/>
+      <c r="RB2" s="17"/>
+      <c r="RC2" s="17"/>
+      <c r="RD2" s="17"/>
+      <c r="RE2" s="17"/>
+      <c r="RF2" s="17"/>
+      <c r="RG2" s="17"/>
+      <c r="RH2" s="17"/>
+      <c r="RI2" s="17"/>
+      <c r="RJ2" s="17"/>
+      <c r="RK2" s="17"/>
+      <c r="RL2" s="17"/>
+      <c r="RM2" s="17"/>
+      <c r="RN2" s="17"/>
+      <c r="RO2" s="17"/>
+      <c r="RP2" s="17"/>
+      <c r="RQ2" s="17"/>
+      <c r="RR2" s="17"/>
+      <c r="RS2" s="17"/>
+      <c r="RT2" s="17"/>
+      <c r="RU2" s="17"/>
+      <c r="RV2" s="17"/>
+      <c r="RW2" s="17"/>
+      <c r="RX2" s="17"/>
+      <c r="RY2" s="17"/>
+      <c r="RZ2" s="17"/>
+      <c r="SA2" s="17"/>
+      <c r="SB2" s="17"/>
+      <c r="SC2" s="17"/>
+      <c r="SD2" s="17"/>
+      <c r="SE2" s="17"/>
+      <c r="SF2" s="17"/>
+      <c r="SG2" s="17"/>
+      <c r="SH2" s="17"/>
+      <c r="SI2" s="17"/>
+      <c r="SJ2" s="18"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -3199,7 +3202,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3749,7 +3752,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="SJ5" s="5"/>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
@@ -5761,7 +5764,7 @@
       </c>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
@@ -6309,7 +6312,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
@@ -6857,7 +6860,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>48</v>
@@ -7405,7 +7408,7 @@
       <c r="SJ9" s="5"/>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
@@ -8911,7 +8914,7 @@
       </c>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
@@ -9459,7 +9462,7 @@
       <c r="SJ11" s="5"/>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -10965,7 +10968,7 @@
       </c>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>75</v>
       </c>
@@ -11513,7 +11516,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -13019,7 +13022,7 @@
       </c>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>85</v>
       </c>
@@ -14525,7 +14528,7 @@
       </c>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
@@ -16031,7 +16034,7 @@
       </c>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -16539,7 +16542,7 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
@@ -17087,7 +17090,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
         <v>102</v>
       </c>
@@ -17593,7 +17596,7 @@
       <c r="SJ19" s="7"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>103</v>
       </c>
@@ -18099,7 +18102,7 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>104</v>
       </c>
@@ -18605,7 +18608,7 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>105</v>
       </c>
@@ -19111,7 +19114,7 @@
       <c r="SJ22" s="5"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6" t="s">
         <v>106</v>
       </c>
@@ -19617,7 +19620,7 @@
       <c r="SJ23" s="7"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>107</v>
       </c>
@@ -20123,7 +20126,7 @@
       <c r="SJ24" s="5"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>108</v>
       </c>
@@ -20629,7 +20632,7 @@
       <c r="SJ25" s="7"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>109</v>
       </c>
@@ -21177,7 +21180,7 @@
       <c r="SJ26" s="5"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>112</v>
       </c>
@@ -21683,7 +21686,7 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
         <v>113</v>
       </c>
@@ -23189,7 +23192,7 @@
       </c>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
@@ -23695,7 +23698,7 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4" t="s">
         <v>118</v>
       </c>
@@ -24201,7 +24204,7 @@
       <c r="SJ30" s="5"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -24751,7 +24754,7 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>122</v>
       </c>
@@ -25299,7 +25302,7 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>128</v>
       </c>
@@ -25847,7 +25850,7 @@
       <c r="SJ33" s="5"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
         <v>129</v>
       </c>
@@ -26395,7 +26398,7 @@
       <c r="SJ34" s="7"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>131</v>
       </c>
@@ -26943,7 +26946,7 @@
       <c r="SJ35" s="5"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6" t="s">
         <v>132</v>
       </c>
@@ -27449,7 +27452,7 @@
       <c r="SJ36" s="7"/>
     </row>
     <row r="37" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>133</v>
       </c>
@@ -27997,7 +28000,7 @@
       <c r="SJ37" s="5"/>
     </row>
     <row r="38" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6" t="s">
         <v>134</v>
       </c>
@@ -28503,7 +28506,7 @@
       <c r="SJ38" s="7"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
         <v>135</v>
       </c>
@@ -29009,7 +29012,7 @@
       <c r="SJ39" s="5"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="6" t="s">
         <v>108</v>
       </c>
@@ -29515,7 +29518,7 @@
       <c r="SJ40" s="7"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
         <v>136</v>
       </c>
@@ -30063,7 +30066,7 @@
       <c r="SJ41" s="5"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
         <v>138</v>
       </c>
@@ -30611,7 +30614,7 @@
       <c r="SJ42" s="5"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="6" t="s">
         <v>139</v>
       </c>
@@ -31121,7 +31124,7 @@
       <c r="SJ43" s="7"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>140</v>
       </c>
@@ -31663,7 +31666,7 @@
       <c r="SJ44" s="5"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="6" t="s">
         <v>141</v>
       </c>
@@ -32169,7 +32172,7 @@
       <c r="SJ45" s="7"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
         <v>142</v>
       </c>
@@ -32675,7 +32678,7 @@
       <c r="SJ46" s="5"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="6" t="s">
         <v>143</v>
       </c>
@@ -33209,7 +33212,7 @@
       <c r="SJ47" s="7"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
         <v>144</v>
       </c>
@@ -33747,7 +33750,7 @@
       <c r="SJ48" s="5"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="6" t="s">
         <v>145</v>
       </c>
@@ -34281,7 +34284,7 @@
       <c r="SJ49" s="7"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>146</v>
       </c>
@@ -34787,7 +34790,7 @@
       <c r="SJ50" s="5"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="6" t="s">
         <v>147</v>
       </c>
@@ -35293,7 +35296,7 @@
       <c r="SJ51" s="7"/>
     </row>
     <row r="52" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
@@ -35799,7 +35802,7 @@
       <c r="SJ52" s="5"/>
     </row>
     <row r="53" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C53" s="17"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6" t="s">
         <v>148</v>
       </c>
@@ -36309,7 +36312,7 @@
       <c r="SJ53" s="7"/>
     </row>
     <row r="54" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
         <v>149</v>
       </c>
@@ -36819,7 +36822,7 @@
       <c r="SJ54" s="5"/>
     </row>
     <row r="55" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C55" s="17"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6" t="s">
         <v>150</v>
       </c>
@@ -37325,7 +37328,7 @@
       <c r="SJ55" s="7"/>
     </row>
     <row r="56" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C56" s="17"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>151</v>
       </c>
@@ -37857,7 +37860,7 @@
       <c r="SJ56" s="5"/>
     </row>
     <row r="57" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C57" s="17"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>152</v>
       </c>
@@ -38405,7 +38408,7 @@
       <c r="SJ57" s="5"/>
     </row>
     <row r="58" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C58" s="17"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
         <v>155</v>
       </c>
@@ -38953,7 +38956,7 @@
       <c r="SJ58" s="5"/>
     </row>
     <row r="59" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C59" s="17"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
         <v>160</v>
       </c>
@@ -39501,7 +39504,7 @@
       <c r="SJ59" s="5"/>
     </row>
     <row r="60" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C60" s="17"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="6" t="s">
         <v>161</v>
       </c>
@@ -40049,7 +40052,7 @@
       <c r="SJ60" s="7"/>
     </row>
     <row r="61" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C61" s="17"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4" t="s">
         <v>162</v>
       </c>
@@ -40597,7 +40600,7 @@
       <c r="SJ61" s="5"/>
     </row>
     <row r="62" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C62" s="17"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="6" t="s">
         <v>163</v>
       </c>
@@ -41145,7 +41148,7 @@
       <c r="SJ62" s="7"/>
     </row>
     <row r="63" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C63" s="17"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4" t="s">
         <v>164</v>
       </c>
@@ -41679,7 +41682,7 @@
       <c r="SJ63" s="5"/>
     </row>
     <row r="64" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C64" s="17"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="6" t="s">
         <v>165</v>
       </c>
@@ -42185,7 +42188,7 @@
       <c r="SJ64" s="7"/>
     </row>
     <row r="65" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C65" s="17"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="4" t="s">
         <v>166</v>
       </c>
@@ -42691,7 +42694,7 @@
       <c r="SJ65" s="5"/>
     </row>
     <row r="66" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C66" s="17"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="6" t="s">
         <v>167</v>
       </c>
@@ -43197,7 +43200,7 @@
       <c r="SJ66" s="7"/>
     </row>
     <row r="67" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C67" s="17"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="4" t="s">
         <v>168</v>
       </c>
@@ -43703,7 +43706,7 @@
       <c r="SJ67" s="5"/>
     </row>
     <row r="68" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C68" s="17"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="6" t="s">
         <v>169</v>
       </c>
@@ -44209,7 +44212,7 @@
       <c r="SJ68" s="7"/>
     </row>
     <row r="69" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C69" s="17"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4" t="s">
         <v>170</v>
       </c>
@@ -44715,7 +44718,7 @@
       <c r="SJ69" s="5"/>
     </row>
     <row r="70" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C70" s="17"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="6" t="s">
         <v>108</v>
       </c>
@@ -45221,7 +45224,7 @@
       <c r="SJ70" s="7"/>
     </row>
     <row r="71" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C71" s="17"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="4" t="s">
         <v>171</v>
       </c>
@@ -45769,7 +45772,7 @@
       <c r="SJ71" s="5"/>
     </row>
     <row r="72" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C72" s="17"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
         <v>176</v>
       </c>
@@ -46275,7 +46278,7 @@
       <c r="SJ72" s="5"/>
     </row>
     <row r="73" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C73" s="17"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4" t="s">
         <v>177</v>
       </c>
@@ -46823,7 +46826,7 @@
       <c r="SJ73" s="5"/>
     </row>
     <row r="74" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C74" s="17"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4" t="s">
         <v>179</v>
       </c>
@@ -47371,7 +47374,7 @@
       <c r="SJ74" s="5"/>
     </row>
     <row r="75" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C75" s="17"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="6" t="s">
         <v>180</v>
       </c>
@@ -47877,7 +47880,7 @@
       <c r="SJ75" s="7"/>
     </row>
     <row r="76" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C76" s="17"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>181</v>
       </c>
@@ -48425,7 +48428,7 @@
       <c r="SJ76" s="5"/>
     </row>
     <row r="77" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C77" s="17"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="6" t="s">
         <v>182</v>
       </c>
@@ -48931,7 +48934,7 @@
       <c r="SJ77" s="7"/>
     </row>
     <row r="78" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C78" s="17"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4" t="s">
         <v>183</v>
       </c>
@@ -49437,7 +49440,7 @@
       <c r="SJ78" s="5"/>
     </row>
     <row r="79" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C79" s="17"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="6" t="s">
         <v>184</v>
       </c>
@@ -49943,7 +49946,7 @@
       <c r="SJ79" s="7"/>
     </row>
     <row r="80" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C80" s="17"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="4" t="s">
         <v>108</v>
       </c>
@@ -50449,7 +50452,7 @@
       <c r="SJ80" s="5"/>
     </row>
     <row r="81" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C81" s="17"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4" t="s">
         <v>185</v>
       </c>
@@ -50973,7 +50976,7 @@
       <c r="SJ81" s="5"/>
     </row>
     <row r="82" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C82" s="17"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4" t="s">
         <v>189</v>
       </c>
@@ -51521,7 +51524,7 @@
       <c r="SJ82" s="5"/>
     </row>
     <row r="83" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C83" s="17"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="6" t="s">
         <v>190</v>
       </c>
@@ -52027,7 +52030,7 @@
       <c r="SJ83" s="7"/>
     </row>
     <row r="84" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C84" s="17"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="4" t="s">
         <v>191</v>
       </c>
@@ -52533,7 +52536,7 @@
       <c r="SJ84" s="5"/>
     </row>
     <row r="85" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C85" s="17"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="6" t="s">
         <v>192</v>
       </c>
@@ -53039,7 +53042,7 @@
       <c r="SJ85" s="7"/>
     </row>
     <row r="86" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C86" s="17"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="4" t="s">
         <v>193</v>
       </c>
@@ -53545,7 +53548,7 @@
       <c r="SJ86" s="5"/>
     </row>
     <row r="87" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C87" s="17"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="6" t="s">
         <v>194</v>
       </c>
@@ -54051,7 +54054,7 @@
       <c r="SJ87" s="7"/>
     </row>
     <row r="88" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C88" s="17"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="4" t="s">
         <v>108</v>
       </c>
@@ -54557,7 +54560,7 @@
       <c r="SJ88" s="5"/>
     </row>
     <row r="89" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C89" s="17"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>195</v>
       </c>
@@ -55105,7 +55108,7 @@
       <c r="SJ89" s="5"/>
     </row>
     <row r="90" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C90" s="17"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4" t="s">
         <v>200</v>
       </c>
@@ -55653,7 +55656,7 @@
       <c r="SJ90" s="5"/>
     </row>
     <row r="91" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C91" s="17"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="6" t="s">
         <v>201</v>
       </c>
@@ -56171,7 +56174,7 @@
       <c r="SJ91" s="7"/>
     </row>
     <row r="92" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C92" s="17"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="4" t="s">
         <v>202</v>
       </c>
@@ -56689,7 +56692,7 @@
       <c r="SJ92" s="5"/>
     </row>
     <row r="93" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C93" s="17"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="6" t="s">
         <v>203</v>
       </c>
@@ -57195,7 +57198,7 @@
       <c r="SJ93" s="7"/>
     </row>
     <row r="94" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C94" s="17"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4" t="s">
         <v>204</v>
       </c>
@@ -57701,7 +57704,7 @@
       <c r="SJ94" s="5"/>
     </row>
     <row r="95" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C95" s="17"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="6" t="s">
         <v>205</v>
       </c>
@@ -58207,7 +58210,7 @@
       <c r="SJ95" s="7"/>
     </row>
     <row r="96" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C96" s="17"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="4" t="s">
         <v>206</v>
       </c>
@@ -58713,7 +58716,7 @@
       <c r="SJ96" s="5"/>
     </row>
     <row r="97" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C97" s="17"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="6" t="s">
         <v>108</v>
       </c>
@@ -59219,7 +59222,7 @@
       <c r="SJ97" s="7"/>
     </row>
     <row r="98" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C98" s="17"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="4" t="s">
         <v>207</v>
       </c>
@@ -59725,7 +59728,7 @@
       <c r="SJ98" s="5"/>
     </row>
     <row r="99" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C99" s="17"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="4" t="s">
         <v>208</v>
       </c>
@@ -60273,7 +60276,7 @@
       <c r="SJ99" s="5"/>
     </row>
     <row r="100" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C100" s="17"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="4" t="s">
         <v>210</v>
       </c>
@@ -60821,7 +60824,7 @@
       <c r="SJ100" s="5"/>
     </row>
     <row r="101" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C101" s="17"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="6" t="s">
         <v>211</v>
       </c>
@@ -61369,7 +61372,7 @@
       <c r="SJ101" s="7"/>
     </row>
     <row r="102" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C102" s="17"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="4" t="s">
         <v>212</v>
       </c>
@@ -61875,7 +61878,7 @@
       <c r="SJ102" s="5"/>
     </row>
     <row r="103" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C103" s="17"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="6" t="s">
         <v>213</v>
       </c>
@@ -62381,7 +62384,7 @@
       <c r="SJ103" s="7"/>
     </row>
     <row r="104" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C104" s="17"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="4" t="s">
         <v>214</v>
       </c>
@@ -62887,7 +62890,7 @@
       <c r="SJ104" s="5"/>
     </row>
     <row r="105" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C105" s="17"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="6" t="s">
         <v>215</v>
       </c>
@@ -63393,7 +63396,7 @@
       <c r="SJ105" s="7"/>
     </row>
     <row r="106" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C106" s="17"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="4" t="s">
         <v>216</v>
       </c>
@@ -63941,7 +63944,7 @@
       <c r="SJ106" s="5"/>
     </row>
     <row r="107" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C107" s="17"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="6" t="s">
         <v>217</v>
       </c>
@@ -64447,7 +64450,7 @@
       <c r="SJ107" s="7"/>
     </row>
     <row r="108" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C108" s="17"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4" t="s">
         <v>108</v>
       </c>
@@ -64953,7 +64956,7 @@
       <c r="SJ108" s="5"/>
     </row>
     <row r="109" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C109" s="18"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4" t="s">
         <v>218</v>
       </c>
@@ -65459,7 +65462,7 @@
       <c r="SJ109" s="5"/>
     </row>
     <row r="110" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -65967,7 +65970,7 @@
       <c r="SJ110" s="5"/>
     </row>
     <row r="111" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -67475,7 +67478,7 @@
       </c>
     </row>
     <row r="112" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C112" s="17"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="4" t="s">
         <v>225</v>
       </c>
@@ -68981,7 +68984,7 @@
       </c>
     </row>
     <row r="113" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C113" s="17"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="4" t="s">
         <v>226</v>
       </c>
@@ -69487,7 +69490,7 @@
       <c r="SJ113" s="5"/>
     </row>
     <row r="114" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C114" s="18"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="8" t="s">
         <v>227</v>
       </c>
@@ -69993,7 +69996,7 @@
       <c r="SJ114" s="9"/>
     </row>
     <row r="115" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C115" s="16"/>
+      <c r="C115" s="13"/>
       <c r="D115" t="s">
         <v>228</v>
       </c>
@@ -70541,7 +70544,7 @@
       <c r="SJ115" s="10"/>
     </row>
     <row r="116" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C116" s="17"/>
+      <c r="C116" s="14"/>
       <c r="D116" t="s">
         <v>233</v>
       </c>
@@ -71089,7 +71092,7 @@
       <c r="SJ116" s="10"/>
     </row>
     <row r="117" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C117" s="17"/>
+      <c r="C117" s="14"/>
       <c r="D117" t="s">
         <v>238</v>
       </c>
@@ -71637,7 +71640,7 @@
       <c r="SJ117" s="10"/>
     </row>
     <row r="118" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C118" s="18"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="8" t="s">
         <v>260</v>
       </c>
@@ -72185,7 +72188,7 @@
       <c r="SJ118" s="11"/>
     </row>
     <row r="119" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -72735,7 +72738,7 @@
       <c r="SJ119" s="10"/>
     </row>
     <row r="120" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C120" s="17"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="4" t="s">
         <v>285</v>
       </c>
@@ -73249,7 +73252,7 @@
       <c r="SJ120" s="10"/>
     </row>
     <row r="121" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C121" s="17"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="4" t="s">
         <v>287</v>
       </c>
@@ -73755,7 +73758,7 @@
       <c r="SJ121" s="10"/>
     </row>
     <row r="122" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C122" s="17"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="4" t="s">
         <v>288</v>
       </c>
@@ -74261,7 +74264,7 @@
       <c r="SJ122" s="10"/>
     </row>
     <row r="123" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C123" s="17"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="4" t="s">
         <v>289</v>
       </c>
@@ -74767,7 +74770,7 @@
       <c r="SJ123" s="10"/>
     </row>
     <row r="124" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C124" s="17"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="4" t="s">
         <v>290</v>
       </c>
@@ -75273,7 +75276,7 @@
       <c r="SJ124" s="10"/>
     </row>
     <row r="125" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C125" s="17"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="4" t="s">
         <v>291</v>
       </c>
@@ -75779,7 +75782,7 @@
       <c r="SJ125" s="10"/>
     </row>
     <row r="126" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="4" t="s">
         <v>292</v>
       </c>
@@ -76285,7 +76288,7 @@
       <c r="SJ126" s="10"/>
     </row>
     <row r="127" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C127" s="17"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="4" t="s">
         <v>293</v>
       </c>
@@ -76791,7 +76794,7 @@
       <c r="SJ127" s="10"/>
     </row>
     <row r="128" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C128" s="18"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="8" t="s">
         <v>294</v>
       </c>

--- a/Element Profiles/Fixed Camera-Element_Profile.xlsx
+++ b/Element Profiles/Fixed Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA03CB-E93E-4D43-B7F1-653166A45F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59211A3E-B108-2F4B-A80D-F6976CD50C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="383">
   <si>
     <t>Export date: Feb 21, 2024</t>
   </si>
@@ -1165,6 +1165,24 @@
   <si>
     <t>10-Year Camera License for Government</t>
   </si>
+  <si>
+    <t>Tile Clip mount</t>
+  </si>
+  <si>
+    <t>ACC-MNT-CLIP-1</t>
+  </si>
+  <si>
+    <t>Accessory23</t>
+  </si>
+  <si>
+    <t>Mini Recess Mount</t>
+  </si>
+  <si>
+    <t>ACC-MNT-MREC-1</t>
+  </si>
+  <si>
+    <t>Accessory24</t>
+  </si>
 </sst>
 </file>
 
@@ -1373,11 +1391,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,6 +1398,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1695,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K79" workbookViewId="0">
+    <sheetView topLeftCell="K79" workbookViewId="0">
       <selection activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
@@ -1733,1015 +1751,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="14"/>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14"/>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14"/>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
-      <c r="NC1" s="14"/>
-      <c r="ND1" s="14"/>
-      <c r="NE1" s="14"/>
-      <c r="NF1" s="14"/>
-      <c r="NG1" s="14"/>
-      <c r="NH1" s="14"/>
-      <c r="NI1" s="14"/>
-      <c r="NJ1" s="14"/>
-      <c r="NK1" s="14"/>
-      <c r="NL1" s="14"/>
-      <c r="NM1" s="14"/>
-      <c r="NN1" s="14"/>
-      <c r="NO1" s="14"/>
-      <c r="NP1" s="14"/>
-      <c r="NQ1" s="14"/>
-      <c r="NR1" s="14"/>
-      <c r="NS1" s="14"/>
-      <c r="NT1" s="14"/>
-      <c r="NU1" s="14"/>
-      <c r="NV1" s="14"/>
-      <c r="NW1" s="14"/>
-      <c r="NX1" s="14"/>
-      <c r="NY1" s="14"/>
-      <c r="NZ1" s="14"/>
-      <c r="OA1" s="14"/>
-      <c r="OB1" s="14"/>
-      <c r="OC1" s="14"/>
-      <c r="OD1" s="14"/>
-      <c r="OE1" s="14"/>
-      <c r="OF1" s="14"/>
-      <c r="OG1" s="14"/>
-      <c r="OH1" s="14"/>
-      <c r="OI1" s="14"/>
-      <c r="OJ1" s="14"/>
-      <c r="OK1" s="14"/>
-      <c r="OL1" s="14"/>
-      <c r="OM1" s="14"/>
-      <c r="ON1" s="14"/>
-      <c r="OO1" s="14"/>
-      <c r="OP1" s="14"/>
-      <c r="OQ1" s="14"/>
-      <c r="OR1" s="14"/>
-      <c r="OS1" s="14"/>
-      <c r="OT1" s="14"/>
-      <c r="OU1" s="14"/>
-      <c r="OV1" s="14"/>
-      <c r="OW1" s="14"/>
-      <c r="OX1" s="14"/>
-      <c r="OY1" s="14"/>
-      <c r="OZ1" s="14"/>
-      <c r="PA1" s="14"/>
-      <c r="PB1" s="14"/>
-      <c r="PC1" s="14"/>
-      <c r="PD1" s="14"/>
-      <c r="PE1" s="14"/>
-      <c r="PF1" s="14"/>
-      <c r="PG1" s="14"/>
-      <c r="PH1" s="14"/>
-      <c r="PI1" s="14"/>
-      <c r="PJ1" s="14"/>
-      <c r="PK1" s="14"/>
-      <c r="PL1" s="14"/>
-      <c r="PM1" s="14"/>
-      <c r="PN1" s="14"/>
-      <c r="PO1" s="14"/>
-      <c r="PP1" s="14"/>
-      <c r="PQ1" s="14"/>
-      <c r="PR1" s="14"/>
-      <c r="PS1" s="14"/>
-      <c r="PT1" s="14"/>
-      <c r="PU1" s="14"/>
-      <c r="PV1" s="14"/>
-      <c r="PW1" s="14"/>
-      <c r="PX1" s="14"/>
-      <c r="PY1" s="14"/>
-      <c r="PZ1" s="14"/>
-      <c r="QA1" s="14"/>
-      <c r="QB1" s="14"/>
-      <c r="QC1" s="14"/>
-      <c r="QD1" s="14"/>
-      <c r="QE1" s="14"/>
-      <c r="QF1" s="14"/>
-      <c r="QG1" s="14"/>
-      <c r="QH1" s="14"/>
-      <c r="QI1" s="14"/>
-      <c r="QJ1" s="14"/>
-      <c r="QK1" s="14"/>
-      <c r="QL1" s="14"/>
-      <c r="QM1" s="14"/>
-      <c r="QN1" s="14"/>
-      <c r="QO1" s="14"/>
-      <c r="QP1" s="14"/>
-      <c r="QQ1" s="14"/>
-      <c r="QR1" s="14"/>
-      <c r="QS1" s="14"/>
-      <c r="QT1" s="14"/>
-      <c r="QU1" s="14"/>
-      <c r="QV1" s="14"/>
-      <c r="QW1" s="14"/>
-      <c r="QX1" s="14"/>
-      <c r="QY1" s="14"/>
-      <c r="QZ1" s="14"/>
-      <c r="RA1" s="14"/>
-      <c r="RB1" s="14"/>
-      <c r="RC1" s="14"/>
-      <c r="RD1" s="14"/>
-      <c r="RE1" s="14"/>
-      <c r="RF1" s="14"/>
-      <c r="RG1" s="14"/>
-      <c r="RH1" s="14"/>
-      <c r="RI1" s="14"/>
-      <c r="RJ1" s="14"/>
-      <c r="RK1" s="14"/>
-      <c r="RL1" s="14"/>
-      <c r="RM1" s="14"/>
-      <c r="RN1" s="14"/>
-      <c r="RO1" s="14"/>
-      <c r="RP1" s="14"/>
-      <c r="RQ1" s="14"/>
-      <c r="RR1" s="14"/>
-      <c r="RS1" s="14"/>
-      <c r="RT1" s="14"/>
-      <c r="RU1" s="14"/>
-      <c r="RV1" s="14"/>
-      <c r="RW1" s="14"/>
-      <c r="RX1" s="14"/>
-      <c r="RY1" s="14"/>
-      <c r="RZ1" s="14"/>
-      <c r="SA1" s="14"/>
-      <c r="SB1" s="14"/>
-      <c r="SC1" s="14"/>
-      <c r="SD1" s="14"/>
-      <c r="SE1" s="14"/>
-      <c r="SF1" s="14"/>
-      <c r="SG1" s="14"/>
-      <c r="SH1" s="14"/>
-      <c r="SI1" s="14"/>
-      <c r="SJ1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="18"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="14"/>
-      <c r="NS2" s="14"/>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="14"/>
-      <c r="NV2" s="14"/>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="14"/>
-      <c r="NY2" s="14"/>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="14"/>
-      <c r="OB2" s="14"/>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="14"/>
-      <c r="OE2" s="14"/>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="14"/>
-      <c r="OH2" s="14"/>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="14"/>
-      <c r="OK2" s="14"/>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="14"/>
-      <c r="ON2" s="14"/>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="14"/>
-      <c r="OQ2" s="14"/>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="14"/>
-      <c r="OT2" s="14"/>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="14"/>
-      <c r="OW2" s="14"/>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="14"/>
-      <c r="OZ2" s="14"/>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="14"/>
-      <c r="PC2" s="14"/>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="14"/>
-      <c r="PF2" s="14"/>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="14"/>
-      <c r="PI2" s="14"/>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="14"/>
-      <c r="PL2" s="14"/>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="14"/>
-      <c r="PO2" s="14"/>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="14"/>
-      <c r="PR2" s="14"/>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="14"/>
-      <c r="PU2" s="14"/>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="14"/>
-      <c r="PX2" s="14"/>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="14"/>
-      <c r="QA2" s="14"/>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="14"/>
-      <c r="QD2" s="14"/>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="14"/>
-      <c r="QG2" s="14"/>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="14"/>
-      <c r="QJ2" s="14"/>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="14"/>
-      <c r="QM2" s="14"/>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="14"/>
-      <c r="QP2" s="14"/>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="14"/>
-      <c r="QS2" s="14"/>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="14"/>
-      <c r="QV2" s="14"/>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="14"/>
-      <c r="QY2" s="14"/>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="14"/>
-      <c r="RB2" s="14"/>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="14"/>
-      <c r="RE2" s="14"/>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="14"/>
-      <c r="RH2" s="14"/>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="14"/>
-      <c r="RK2" s="14"/>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="14"/>
-      <c r="RN2" s="14"/>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="14"/>
-      <c r="RQ2" s="14"/>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="14"/>
-      <c r="RT2" s="14"/>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="14"/>
-      <c r="RW2" s="14"/>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="14"/>
-      <c r="RZ2" s="14"/>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="14"/>
-      <c r="SC2" s="14"/>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="14"/>
-      <c r="SF2" s="14"/>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="14"/>
-      <c r="SI2" s="14"/>
-      <c r="SJ2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="17"/>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="17"/>
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="17"/>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="17"/>
+      <c r="EH2" s="17"/>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="17"/>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="17"/>
+      <c r="EX2" s="17"/>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="17"/>
+      <c r="FF2" s="17"/>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="17"/>
+      <c r="FN2" s="17"/>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="17"/>
+      <c r="FV2" s="17"/>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="17"/>
+      <c r="GD2" s="17"/>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="17"/>
+      <c r="GL2" s="17"/>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="17"/>
+      <c r="GT2" s="17"/>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="17"/>
+      <c r="HB2" s="17"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="17"/>
+      <c r="HJ2" s="17"/>
+      <c r="HK2" s="17"/>
+      <c r="HL2" s="17"/>
+      <c r="HM2" s="17"/>
+      <c r="HN2" s="17"/>
+      <c r="HO2" s="17"/>
+      <c r="HP2" s="17"/>
+      <c r="HQ2" s="17"/>
+      <c r="HR2" s="17"/>
+      <c r="HS2" s="17"/>
+      <c r="HT2" s="17"/>
+      <c r="HU2" s="17"/>
+      <c r="HV2" s="17"/>
+      <c r="HW2" s="17"/>
+      <c r="HX2" s="17"/>
+      <c r="HY2" s="17"/>
+      <c r="HZ2" s="17"/>
+      <c r="IA2" s="17"/>
+      <c r="IB2" s="17"/>
+      <c r="IC2" s="17"/>
+      <c r="ID2" s="17"/>
+      <c r="IE2" s="17"/>
+      <c r="IF2" s="17"/>
+      <c r="IG2" s="17"/>
+      <c r="IH2" s="17"/>
+      <c r="II2" s="17"/>
+      <c r="IJ2" s="17"/>
+      <c r="IK2" s="17"/>
+      <c r="IL2" s="17"/>
+      <c r="IM2" s="17"/>
+      <c r="IN2" s="17"/>
+      <c r="IO2" s="17"/>
+      <c r="IP2" s="17"/>
+      <c r="IQ2" s="17"/>
+      <c r="IR2" s="17"/>
+      <c r="IS2" s="17"/>
+      <c r="IT2" s="17"/>
+      <c r="IU2" s="17"/>
+      <c r="IV2" s="17"/>
+      <c r="IW2" s="17"/>
+      <c r="IX2" s="17"/>
+      <c r="IY2" s="17"/>
+      <c r="IZ2" s="17"/>
+      <c r="JA2" s="17"/>
+      <c r="JB2" s="17"/>
+      <c r="JC2" s="17"/>
+      <c r="JD2" s="17"/>
+      <c r="JE2" s="17"/>
+      <c r="JF2" s="17"/>
+      <c r="JG2" s="17"/>
+      <c r="JH2" s="17"/>
+      <c r="JI2" s="17"/>
+      <c r="JJ2" s="17"/>
+      <c r="JK2" s="17"/>
+      <c r="JL2" s="17"/>
+      <c r="JM2" s="17"/>
+      <c r="JN2" s="17"/>
+      <c r="JO2" s="17"/>
+      <c r="JP2" s="17"/>
+      <c r="JQ2" s="17"/>
+      <c r="JR2" s="17"/>
+      <c r="JS2" s="17"/>
+      <c r="JT2" s="17"/>
+      <c r="JU2" s="17"/>
+      <c r="JV2" s="17"/>
+      <c r="JW2" s="17"/>
+      <c r="JX2" s="17"/>
+      <c r="JY2" s="17"/>
+      <c r="JZ2" s="17"/>
+      <c r="KA2" s="17"/>
+      <c r="KB2" s="17"/>
+      <c r="KC2" s="17"/>
+      <c r="KD2" s="17"/>
+      <c r="KE2" s="17"/>
+      <c r="KF2" s="17"/>
+      <c r="KG2" s="17"/>
+      <c r="KH2" s="17"/>
+      <c r="KI2" s="17"/>
+      <c r="KJ2" s="17"/>
+      <c r="KK2" s="17"/>
+      <c r="KL2" s="17"/>
+      <c r="KM2" s="17"/>
+      <c r="KN2" s="17"/>
+      <c r="KO2" s="17"/>
+      <c r="KP2" s="17"/>
+      <c r="KQ2" s="17"/>
+      <c r="KR2" s="17"/>
+      <c r="KS2" s="17"/>
+      <c r="KT2" s="17"/>
+      <c r="KU2" s="17"/>
+      <c r="KV2" s="17"/>
+      <c r="KW2" s="17"/>
+      <c r="KX2" s="17"/>
+      <c r="KY2" s="17"/>
+      <c r="KZ2" s="17"/>
+      <c r="LA2" s="17"/>
+      <c r="LB2" s="17"/>
+      <c r="LC2" s="17"/>
+      <c r="LD2" s="17"/>
+      <c r="LE2" s="17"/>
+      <c r="LF2" s="17"/>
+      <c r="LG2" s="17"/>
+      <c r="LH2" s="17"/>
+      <c r="LI2" s="17"/>
+      <c r="LJ2" s="17"/>
+      <c r="LK2" s="17"/>
+      <c r="LL2" s="17"/>
+      <c r="LM2" s="17"/>
+      <c r="LN2" s="17"/>
+      <c r="LO2" s="17"/>
+      <c r="LP2" s="17"/>
+      <c r="LQ2" s="17"/>
+      <c r="LR2" s="17"/>
+      <c r="LS2" s="17"/>
+      <c r="LT2" s="17"/>
+      <c r="LU2" s="17"/>
+      <c r="LV2" s="17"/>
+      <c r="LW2" s="17"/>
+      <c r="LX2" s="17"/>
+      <c r="LY2" s="17"/>
+      <c r="LZ2" s="17"/>
+      <c r="MA2" s="17"/>
+      <c r="MB2" s="17"/>
+      <c r="MC2" s="17"/>
+      <c r="MD2" s="17"/>
+      <c r="ME2" s="17"/>
+      <c r="MF2" s="17"/>
+      <c r="MG2" s="17"/>
+      <c r="MH2" s="17"/>
+      <c r="MI2" s="17"/>
+      <c r="MJ2" s="17"/>
+      <c r="MK2" s="17"/>
+      <c r="ML2" s="17"/>
+      <c r="MM2" s="17"/>
+      <c r="MN2" s="17"/>
+      <c r="MO2" s="17"/>
+      <c r="MP2" s="17"/>
+      <c r="MQ2" s="17"/>
+      <c r="MR2" s="17"/>
+      <c r="MS2" s="17"/>
+      <c r="MT2" s="17"/>
+      <c r="MU2" s="17"/>
+      <c r="MV2" s="17"/>
+      <c r="MW2" s="17"/>
+      <c r="MX2" s="17"/>
+      <c r="MY2" s="17"/>
+      <c r="MZ2" s="17"/>
+      <c r="NA2" s="17"/>
+      <c r="NB2" s="17"/>
+      <c r="NC2" s="17"/>
+      <c r="ND2" s="17"/>
+      <c r="NE2" s="17"/>
+      <c r="NF2" s="17"/>
+      <c r="NG2" s="17"/>
+      <c r="NH2" s="17"/>
+      <c r="NI2" s="17"/>
+      <c r="NJ2" s="17"/>
+      <c r="NK2" s="17"/>
+      <c r="NL2" s="17"/>
+      <c r="NM2" s="17"/>
+      <c r="NN2" s="17"/>
+      <c r="NO2" s="17"/>
+      <c r="NP2" s="17"/>
+      <c r="NQ2" s="17"/>
+      <c r="NR2" s="17"/>
+      <c r="NS2" s="17"/>
+      <c r="NT2" s="17"/>
+      <c r="NU2" s="17"/>
+      <c r="NV2" s="17"/>
+      <c r="NW2" s="17"/>
+      <c r="NX2" s="17"/>
+      <c r="NY2" s="17"/>
+      <c r="NZ2" s="17"/>
+      <c r="OA2" s="17"/>
+      <c r="OB2" s="17"/>
+      <c r="OC2" s="17"/>
+      <c r="OD2" s="17"/>
+      <c r="OE2" s="17"/>
+      <c r="OF2" s="17"/>
+      <c r="OG2" s="17"/>
+      <c r="OH2" s="17"/>
+      <c r="OI2" s="17"/>
+      <c r="OJ2" s="17"/>
+      <c r="OK2" s="17"/>
+      <c r="OL2" s="17"/>
+      <c r="OM2" s="17"/>
+      <c r="ON2" s="17"/>
+      <c r="OO2" s="17"/>
+      <c r="OP2" s="17"/>
+      <c r="OQ2" s="17"/>
+      <c r="OR2" s="17"/>
+      <c r="OS2" s="17"/>
+      <c r="OT2" s="17"/>
+      <c r="OU2" s="17"/>
+      <c r="OV2" s="17"/>
+      <c r="OW2" s="17"/>
+      <c r="OX2" s="17"/>
+      <c r="OY2" s="17"/>
+      <c r="OZ2" s="17"/>
+      <c r="PA2" s="17"/>
+      <c r="PB2" s="17"/>
+      <c r="PC2" s="17"/>
+      <c r="PD2" s="17"/>
+      <c r="PE2" s="17"/>
+      <c r="PF2" s="17"/>
+      <c r="PG2" s="17"/>
+      <c r="PH2" s="17"/>
+      <c r="PI2" s="17"/>
+      <c r="PJ2" s="17"/>
+      <c r="PK2" s="17"/>
+      <c r="PL2" s="17"/>
+      <c r="PM2" s="17"/>
+      <c r="PN2" s="17"/>
+      <c r="PO2" s="17"/>
+      <c r="PP2" s="17"/>
+      <c r="PQ2" s="17"/>
+      <c r="PR2" s="17"/>
+      <c r="PS2" s="17"/>
+      <c r="PT2" s="17"/>
+      <c r="PU2" s="17"/>
+      <c r="PV2" s="17"/>
+      <c r="PW2" s="17"/>
+      <c r="PX2" s="17"/>
+      <c r="PY2" s="17"/>
+      <c r="PZ2" s="17"/>
+      <c r="QA2" s="17"/>
+      <c r="QB2" s="17"/>
+      <c r="QC2" s="17"/>
+      <c r="QD2" s="17"/>
+      <c r="QE2" s="17"/>
+      <c r="QF2" s="17"/>
+      <c r="QG2" s="17"/>
+      <c r="QH2" s="17"/>
+      <c r="QI2" s="17"/>
+      <c r="QJ2" s="17"/>
+      <c r="QK2" s="17"/>
+      <c r="QL2" s="17"/>
+      <c r="QM2" s="17"/>
+      <c r="QN2" s="17"/>
+      <c r="QO2" s="17"/>
+      <c r="QP2" s="17"/>
+      <c r="QQ2" s="17"/>
+      <c r="QR2" s="17"/>
+      <c r="QS2" s="17"/>
+      <c r="QT2" s="17"/>
+      <c r="QU2" s="17"/>
+      <c r="QV2" s="17"/>
+      <c r="QW2" s="17"/>
+      <c r="QX2" s="17"/>
+      <c r="QY2" s="17"/>
+      <c r="QZ2" s="17"/>
+      <c r="RA2" s="17"/>
+      <c r="RB2" s="17"/>
+      <c r="RC2" s="17"/>
+      <c r="RD2" s="17"/>
+      <c r="RE2" s="17"/>
+      <c r="RF2" s="17"/>
+      <c r="RG2" s="17"/>
+      <c r="RH2" s="17"/>
+      <c r="RI2" s="17"/>
+      <c r="RJ2" s="17"/>
+      <c r="RK2" s="17"/>
+      <c r="RL2" s="17"/>
+      <c r="RM2" s="17"/>
+      <c r="RN2" s="17"/>
+      <c r="RO2" s="17"/>
+      <c r="RP2" s="17"/>
+      <c r="RQ2" s="17"/>
+      <c r="RR2" s="17"/>
+      <c r="RS2" s="17"/>
+      <c r="RT2" s="17"/>
+      <c r="RU2" s="17"/>
+      <c r="RV2" s="17"/>
+      <c r="RW2" s="17"/>
+      <c r="RX2" s="17"/>
+      <c r="RY2" s="17"/>
+      <c r="RZ2" s="17"/>
+      <c r="SA2" s="17"/>
+      <c r="SB2" s="17"/>
+      <c r="SC2" s="17"/>
+      <c r="SD2" s="17"/>
+      <c r="SE2" s="17"/>
+      <c r="SF2" s="17"/>
+      <c r="SG2" s="17"/>
+      <c r="SH2" s="17"/>
+      <c r="SI2" s="17"/>
+      <c r="SJ2" s="18"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -3298,7 +3316,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3852,7 +3870,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
@@ -4358,7 +4376,7 @@
       <c r="SJ5" s="5"/>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
@@ -5864,7 +5882,7 @@
       </c>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
@@ -6416,7 +6434,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
@@ -6968,7 +6986,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
@@ -7520,7 +7538,7 @@
       <c r="SJ9" s="5"/>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
@@ -9026,7 +9044,7 @@
       </c>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
@@ -9578,7 +9596,7 @@
       <c r="SJ11" s="5"/>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>82</v>
       </c>
@@ -11084,7 +11102,7 @@
       </c>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
@@ -11636,7 +11654,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>84</v>
       </c>
@@ -13142,7 +13160,7 @@
       </c>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>93</v>
       </c>
@@ -14648,7 +14666,7 @@
       </c>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4" t="s">
         <v>99</v>
       </c>
@@ -16154,7 +16172,7 @@
       </c>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -16662,7 +16680,7 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>107</v>
       </c>
@@ -17214,7 +17232,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
         <v>109</v>
       </c>
@@ -17720,7 +17738,7 @@
       <c r="SJ19" s="7"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>110</v>
       </c>
@@ -18226,7 +18244,7 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>111</v>
       </c>
@@ -18732,7 +18750,7 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>112</v>
       </c>
@@ -19238,7 +19256,7 @@
       <c r="SJ22" s="5"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6" t="s">
         <v>113</v>
       </c>
@@ -19744,7 +19762,7 @@
       <c r="SJ23" s="7"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>114</v>
       </c>
@@ -20250,7 +20268,7 @@
       <c r="SJ24" s="5"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>115</v>
       </c>
@@ -20756,7 +20774,7 @@
       <c r="SJ25" s="7"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>116</v>
       </c>
@@ -21308,7 +21326,7 @@
       <c r="SJ26" s="5"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>119</v>
       </c>
@@ -21814,7 +21832,7 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
         <v>120</v>
       </c>
@@ -23320,7 +23338,7 @@
       </c>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
         <v>124</v>
       </c>
@@ -23826,7 +23844,7 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
@@ -24332,7 +24350,7 @@
       <c r="SJ30" s="5"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -24886,7 +24904,7 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>129</v>
       </c>
@@ -25438,7 +25456,7 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>135</v>
       </c>
@@ -25990,7 +26008,7 @@
       <c r="SJ33" s="5"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
         <v>136</v>
       </c>
@@ -26542,7 +26560,7 @@
       <c r="SJ34" s="7"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>138</v>
       </c>
@@ -27094,7 +27112,7 @@
       <c r="SJ35" s="5"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6" t="s">
         <v>139</v>
       </c>
@@ -27600,7 +27618,7 @@
       <c r="SJ36" s="7"/>
     </row>
     <row r="37" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>140</v>
       </c>
@@ -28152,7 +28170,7 @@
       <c r="SJ37" s="5"/>
     </row>
     <row r="38" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6" t="s">
         <v>141</v>
       </c>
@@ -28658,7 +28676,7 @@
       <c r="SJ38" s="7"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
         <v>142</v>
       </c>
@@ -29164,7 +29182,7 @@
       <c r="SJ39" s="5"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="6" t="s">
         <v>115</v>
       </c>
@@ -29670,7 +29688,7 @@
       <c r="SJ40" s="7"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
         <v>143</v>
       </c>
@@ -30222,7 +30240,7 @@
       <c r="SJ41" s="5"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
         <v>145</v>
       </c>
@@ -30774,7 +30792,7 @@
       <c r="SJ42" s="5"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="6" t="s">
         <v>146</v>
       </c>
@@ -31284,7 +31302,7 @@
       <c r="SJ43" s="7"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>147</v>
       </c>
@@ -31830,7 +31848,7 @@
       <c r="SJ44" s="5"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="6" t="s">
         <v>148</v>
       </c>
@@ -32336,7 +32354,7 @@
       <c r="SJ45" s="7"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
         <v>149</v>
       </c>
@@ -32842,7 +32860,7 @@
       <c r="SJ46" s="5"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="6" t="s">
         <v>150</v>
       </c>
@@ -33374,7 +33392,7 @@
       <c r="SJ47" s="7"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
         <v>151</v>
       </c>
@@ -33910,7 +33928,7 @@
       <c r="SJ48" s="5"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="6" t="s">
         <v>152</v>
       </c>
@@ -34442,7 +34460,7 @@
       <c r="SJ49" s="7"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>153</v>
       </c>
@@ -34948,7 +34966,7 @@
       <c r="SJ50" s="5"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="6" t="s">
         <v>154</v>
       </c>
@@ -35454,7 +35472,7 @@
       <c r="SJ51" s="7"/>
     </row>
     <row r="52" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
         <v>115</v>
       </c>
@@ -35960,7 +35978,7 @@
       <c r="SJ52" s="5"/>
     </row>
     <row r="53" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C53" s="17"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6" t="s">
         <v>155</v>
       </c>
@@ -36470,7 +36488,7 @@
       <c r="SJ53" s="7"/>
     </row>
     <row r="54" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
         <v>156</v>
       </c>
@@ -36980,7 +36998,7 @@
       <c r="SJ54" s="5"/>
     </row>
     <row r="55" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C55" s="17"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6" t="s">
         <v>157</v>
       </c>
@@ -37486,7 +37504,7 @@
       <c r="SJ55" s="7"/>
     </row>
     <row r="56" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C56" s="17"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>158</v>
       </c>
@@ -38014,7 +38032,7 @@
       <c r="SJ56" s="5"/>
     </row>
     <row r="57" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C57" s="17"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>159</v>
       </c>
@@ -38566,7 +38584,7 @@
       <c r="SJ57" s="5"/>
     </row>
     <row r="58" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C58" s="17"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
         <v>162</v>
       </c>
@@ -39118,7 +39136,7 @@
       <c r="SJ58" s="5"/>
     </row>
     <row r="59" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C59" s="17"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
         <v>167</v>
       </c>
@@ -39670,7 +39688,7 @@
       <c r="SJ59" s="5"/>
     </row>
     <row r="60" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C60" s="17"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="6" t="s">
         <v>168</v>
       </c>
@@ -40222,7 +40240,7 @@
       <c r="SJ60" s="7"/>
     </row>
     <row r="61" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C61" s="17"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4" t="s">
         <v>169</v>
       </c>
@@ -40774,7 +40792,7 @@
       <c r="SJ61" s="5"/>
     </row>
     <row r="62" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C62" s="17"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="6" t="s">
         <v>170</v>
       </c>
@@ -41326,7 +41344,7 @@
       <c r="SJ62" s="7"/>
     </row>
     <row r="63" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C63" s="17"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4" t="s">
         <v>171</v>
       </c>
@@ -41856,7 +41874,7 @@
       <c r="SJ63" s="5"/>
     </row>
     <row r="64" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C64" s="17"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="6" t="s">
         <v>172</v>
       </c>
@@ -42362,7 +42380,7 @@
       <c r="SJ64" s="7"/>
     </row>
     <row r="65" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C65" s="17"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="4" t="s">
         <v>173</v>
       </c>
@@ -42868,7 +42886,7 @@
       <c r="SJ65" s="5"/>
     </row>
     <row r="66" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C66" s="17"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="6" t="s">
         <v>174</v>
       </c>
@@ -43374,7 +43392,7 @@
       <c r="SJ66" s="7"/>
     </row>
     <row r="67" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C67" s="17"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="4" t="s">
         <v>175</v>
       </c>
@@ -43880,7 +43898,7 @@
       <c r="SJ67" s="5"/>
     </row>
     <row r="68" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C68" s="17"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="6" t="s">
         <v>176</v>
       </c>
@@ -44386,7 +44404,7 @@
       <c r="SJ68" s="7"/>
     </row>
     <row r="69" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C69" s="17"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4" t="s">
         <v>177</v>
       </c>
@@ -44892,7 +44910,7 @@
       <c r="SJ69" s="5"/>
     </row>
     <row r="70" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C70" s="17"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="6" t="s">
         <v>115</v>
       </c>
@@ -45398,7 +45416,7 @@
       <c r="SJ70" s="7"/>
     </row>
     <row r="71" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C71" s="17"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="4" t="s">
         <v>178</v>
       </c>
@@ -45950,7 +45968,7 @@
       <c r="SJ71" s="5"/>
     </row>
     <row r="72" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C72" s="17"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
         <v>183</v>
       </c>
@@ -46456,7 +46474,7 @@
       <c r="SJ72" s="5"/>
     </row>
     <row r="73" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C73" s="17"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4" t="s">
         <v>184</v>
       </c>
@@ -47008,7 +47026,7 @@
       <c r="SJ73" s="5"/>
     </row>
     <row r="74" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C74" s="17"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4" t="s">
         <v>186</v>
       </c>
@@ -47560,7 +47578,7 @@
       <c r="SJ74" s="5"/>
     </row>
     <row r="75" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C75" s="17"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="6" t="s">
         <v>187</v>
       </c>
@@ -48066,7 +48084,7 @@
       <c r="SJ75" s="7"/>
     </row>
     <row r="76" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C76" s="17"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>188</v>
       </c>
@@ -48618,7 +48636,7 @@
       <c r="SJ76" s="5"/>
     </row>
     <row r="77" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C77" s="17"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="6" t="s">
         <v>189</v>
       </c>
@@ -49124,7 +49142,7 @@
       <c r="SJ77" s="7"/>
     </row>
     <row r="78" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C78" s="17"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4" t="s">
         <v>190</v>
       </c>
@@ -49630,7 +49648,7 @@
       <c r="SJ78" s="5"/>
     </row>
     <row r="79" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C79" s="17"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="6" t="s">
         <v>191</v>
       </c>
@@ -50136,7 +50154,7 @@
       <c r="SJ79" s="7"/>
     </row>
     <row r="80" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C80" s="17"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="4" t="s">
         <v>115</v>
       </c>
@@ -50642,7 +50660,7 @@
       <c r="SJ80" s="5"/>
     </row>
     <row r="81" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C81" s="17"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4" t="s">
         <v>192</v>
       </c>
@@ -51178,7 +51196,7 @@
       <c r="SJ81" s="5"/>
     </row>
     <row r="82" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C82" s="17"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4" t="s">
         <v>196</v>
       </c>
@@ -51730,7 +51748,7 @@
       <c r="SJ82" s="5"/>
     </row>
     <row r="83" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C83" s="17"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="6" t="s">
         <v>197</v>
       </c>
@@ -52236,7 +52254,7 @@
       <c r="SJ83" s="7"/>
     </row>
     <row r="84" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C84" s="17"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="4" t="s">
         <v>198</v>
       </c>
@@ -52742,7 +52760,7 @@
       <c r="SJ84" s="5"/>
     </row>
     <row r="85" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C85" s="17"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="6" t="s">
         <v>199</v>
       </c>
@@ -53248,7 +53266,7 @@
       <c r="SJ85" s="7"/>
     </row>
     <row r="86" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C86" s="17"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="4" t="s">
         <v>200</v>
       </c>
@@ -53754,7 +53772,7 @@
       <c r="SJ86" s="5"/>
     </row>
     <row r="87" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C87" s="17"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="6" t="s">
         <v>201</v>
       </c>
@@ -54260,7 +54278,7 @@
       <c r="SJ87" s="7"/>
     </row>
     <row r="88" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C88" s="17"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="4" t="s">
         <v>115</v>
       </c>
@@ -54766,7 +54784,7 @@
       <c r="SJ88" s="5"/>
     </row>
     <row r="89" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C89" s="17"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>202</v>
       </c>
@@ -55318,7 +55336,7 @@
       <c r="SJ89" s="5"/>
     </row>
     <row r="90" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C90" s="17"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4" t="s">
         <v>208</v>
       </c>
@@ -55870,7 +55888,7 @@
       <c r="SJ90" s="5"/>
     </row>
     <row r="91" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C91" s="17"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="6" t="s">
         <v>209</v>
       </c>
@@ -56392,7 +56410,7 @@
       <c r="SJ91" s="7"/>
     </row>
     <row r="92" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C92" s="17"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="4" t="s">
         <v>210</v>
       </c>
@@ -56914,7 +56932,7 @@
       <c r="SJ92" s="5"/>
     </row>
     <row r="93" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C93" s="17"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="6" t="s">
         <v>211</v>
       </c>
@@ -57420,7 +57438,7 @@
       <c r="SJ93" s="7"/>
     </row>
     <row r="94" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C94" s="17"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4" t="s">
         <v>212</v>
       </c>
@@ -57926,7 +57944,7 @@
       <c r="SJ94" s="5"/>
     </row>
     <row r="95" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C95" s="17"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="6" t="s">
         <v>213</v>
       </c>
@@ -58432,7 +58450,7 @@
       <c r="SJ95" s="7"/>
     </row>
     <row r="96" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C96" s="17"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="4" t="s">
         <v>214</v>
       </c>
@@ -58938,7 +58956,7 @@
       <c r="SJ96" s="5"/>
     </row>
     <row r="97" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C97" s="17"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="6" t="s">
         <v>115</v>
       </c>
@@ -59444,7 +59462,7 @@
       <c r="SJ97" s="7"/>
     </row>
     <row r="98" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C98" s="17"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="4" t="s">
         <v>215</v>
       </c>
@@ -59950,7 +59968,7 @@
       <c r="SJ98" s="5"/>
     </row>
     <row r="99" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C99" s="17"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="4" t="s">
         <v>216</v>
       </c>
@@ -60502,7 +60520,7 @@
       <c r="SJ99" s="5"/>
     </row>
     <row r="100" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C100" s="17"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="4" t="s">
         <v>218</v>
       </c>
@@ -61054,7 +61072,7 @@
       <c r="SJ100" s="5"/>
     </row>
     <row r="101" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C101" s="17"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="6" t="s">
         <v>219</v>
       </c>
@@ -61606,7 +61624,7 @@
       <c r="SJ101" s="7"/>
     </row>
     <row r="102" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C102" s="17"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="4" t="s">
         <v>220</v>
       </c>
@@ -62112,7 +62130,7 @@
       <c r="SJ102" s="5"/>
     </row>
     <row r="103" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C103" s="17"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="6" t="s">
         <v>221</v>
       </c>
@@ -62618,7 +62636,7 @@
       <c r="SJ103" s="7"/>
     </row>
     <row r="104" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C104" s="17"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="4" t="s">
         <v>222</v>
       </c>
@@ -63124,7 +63142,7 @@
       <c r="SJ104" s="5"/>
     </row>
     <row r="105" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C105" s="17"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="6" t="s">
         <v>223</v>
       </c>
@@ -63630,7 +63648,7 @@
       <c r="SJ105" s="7"/>
     </row>
     <row r="106" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C106" s="17"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="4" t="s">
         <v>224</v>
       </c>
@@ -64182,7 +64200,7 @@
       <c r="SJ106" s="5"/>
     </row>
     <row r="107" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C107" s="17"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="6" t="s">
         <v>225</v>
       </c>
@@ -64688,7 +64706,7 @@
       <c r="SJ107" s="7"/>
     </row>
     <row r="108" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C108" s="17"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4" t="s">
         <v>115</v>
       </c>
@@ -65194,7 +65212,7 @@
       <c r="SJ108" s="5"/>
     </row>
     <row r="109" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C109" s="18"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4" t="s">
         <v>226</v>
       </c>
@@ -65700,7 +65718,7 @@
       <c r="SJ109" s="5"/>
     </row>
     <row r="110" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="13" t="s">
         <v>227</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -66208,7 +66226,7 @@
       <c r="SJ110" s="5"/>
     </row>
     <row r="111" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="13" t="s">
         <v>229</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -67716,7 +67734,7 @@
       </c>
     </row>
     <row r="112" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C112" s="17"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="4" t="s">
         <v>233</v>
       </c>
@@ -69222,7 +69240,7 @@
       </c>
     </row>
     <row r="113" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C113" s="17"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="4" t="s">
         <v>234</v>
       </c>
@@ -69728,7 +69746,7 @@
       <c r="SJ113" s="5"/>
     </row>
     <row r="114" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C114" s="18"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="8" t="s">
         <v>235</v>
       </c>
@@ -70234,7 +70252,7 @@
       <c r="SJ114" s="9"/>
     </row>
     <row r="115" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C115" s="16"/>
+      <c r="C115" s="13"/>
       <c r="D115" t="s">
         <v>236</v>
       </c>
@@ -70786,7 +70804,7 @@
       <c r="SJ115" s="10"/>
     </row>
     <row r="116" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C116" s="17"/>
+      <c r="C116" s="14"/>
       <c r="D116" t="s">
         <v>241</v>
       </c>
@@ -71338,7 +71356,7 @@
       <c r="SJ116" s="10"/>
     </row>
     <row r="117" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C117" s="17"/>
+      <c r="C117" s="14"/>
       <c r="D117" t="s">
         <v>246</v>
       </c>
@@ -71890,7 +71908,7 @@
       <c r="SJ117" s="10"/>
     </row>
     <row r="118" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C118" s="18"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="8" t="s">
         <v>270</v>
       </c>
@@ -72442,7 +72460,7 @@
       <c r="SJ118" s="11"/>
     </row>
     <row r="119" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>294</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -72996,7 +73014,7 @@
       <c r="SJ119" s="10"/>
     </row>
     <row r="120" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C120" s="17"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="4" t="s">
         <v>297</v>
       </c>
@@ -73510,7 +73528,7 @@
       <c r="SJ120" s="10"/>
     </row>
     <row r="121" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C121" s="17"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="4" t="s">
         <v>299</v>
       </c>
@@ -74016,7 +74034,7 @@
       <c r="SJ121" s="10"/>
     </row>
     <row r="122" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C122" s="17"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="4" t="s">
         <v>300</v>
       </c>
@@ -74522,7 +74540,7 @@
       <c r="SJ122" s="10"/>
     </row>
     <row r="123" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C123" s="17"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="4" t="s">
         <v>301</v>
       </c>
@@ -75028,7 +75046,7 @@
       <c r="SJ123" s="10"/>
     </row>
     <row r="124" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C124" s="17"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="4" t="s">
         <v>302</v>
       </c>
@@ -75534,7 +75552,7 @@
       <c r="SJ124" s="10"/>
     </row>
     <row r="125" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C125" s="17"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="4" t="s">
         <v>303</v>
       </c>
@@ -76040,7 +76058,7 @@
       <c r="SJ125" s="10"/>
     </row>
     <row r="126" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="4" t="s">
         <v>304</v>
       </c>
@@ -76546,7 +76564,7 @@
       <c r="SJ126" s="10"/>
     </row>
     <row r="127" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C127" s="17"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="4" t="s">
         <v>305</v>
       </c>
@@ -77052,7 +77070,7 @@
       <c r="SJ127" s="10"/>
     </row>
     <row r="128" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C128" s="18"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="8" t="s">
         <v>306</v>
       </c>
@@ -77670,10 +77688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -77951,16 +77969,16 @@
         <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="E14">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -77971,16 +77989,16 @@
         <v>351</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="E15">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -77991,16 +78009,16 @@
         <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E16">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -78011,16 +78029,16 @@
         <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E17">
-        <v>549</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -78031,16 +78049,16 @@
         <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E18">
-        <v>899</v>
+        <v>199</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -78051,16 +78069,16 @@
         <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E19">
-        <v>1799</v>
+        <v>549</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -78071,16 +78089,16 @@
         <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E20">
-        <v>299</v>
+        <v>899</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -78091,16 +78109,16 @@
         <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E21">
-        <v>799</v>
+        <v>1799</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -78111,16 +78129,16 @@
         <v>371</v>
       </c>
       <c r="B22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E22">
-        <v>1349</v>
+        <v>299</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -78131,18 +78149,58 @@
         <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
       <c r="D23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23">
+        <v>799</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24">
+        <v>1349</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
         <v>368</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>2699</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>0</v>
       </c>
     </row>

--- a/Element Profiles/Fixed Camera-Element_Profile.xlsx
+++ b/Element Profiles/Fixed Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59211A3E-B108-2F4B-A80D-F6976CD50C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B826CB-98C3-A74E-A849-FA8F3502E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="17280" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -1004,12 +1004,6 @@
     <t>Accessory4</t>
   </si>
   <si>
-    <t>Mini Camera Junction Box Mount Adapter</t>
-  </si>
-  <si>
-    <t>ACC-MNT-6</t>
-  </si>
-  <si>
     <t>Accessory5</t>
   </si>
   <si>
@@ -1067,16 +1061,10 @@
     <t>Accessory11</t>
   </si>
   <si>
-    <t>LIC-1Y</t>
-  </si>
-  <si>
     <t>Accessory12</t>
   </si>
   <si>
     <t>3–Year Camera License</t>
-  </si>
-  <si>
-    <t>LIC-3Y</t>
   </si>
   <si>
     <t>Accessory13</t>
@@ -1085,22 +1073,13 @@
     <t>5–Year Camera License</t>
   </si>
   <si>
-    <t>LIC-5Y</t>
-  </si>
-  <si>
     <t>Accessory14</t>
   </si>
   <si>
     <t>10–Year Camera License</t>
   </si>
   <si>
-    <t>LIC-10Y</t>
-  </si>
-  <si>
     <t>Accessory15</t>
-  </si>
-  <si>
-    <t>ACC-MNT-11</t>
   </si>
   <si>
     <t>Accessory16</t>
@@ -1182,6 +1161,27 @@
   </si>
   <si>
     <t>Accessory24</t>
+  </si>
+  <si>
+    <t>LIC-CAM-1Y</t>
+  </si>
+  <si>
+    <t>LIC-CAM-3Y</t>
+  </si>
+  <si>
+    <t>LIC-CAM-5Y</t>
+  </si>
+  <si>
+    <t>LIC-CAM-10Y</t>
+  </si>
+  <si>
+    <t>ACC-MNT-SJBOX-1</t>
+  </si>
+  <si>
+    <t>ACC-MNT-MJBOX-1</t>
+  </si>
+  <si>
+    <t>Mini Camera Junction Box Mount</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ128"/>
   <sheetViews>
-    <sheetView topLeftCell="K79" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -72497,10 +72497,10 @@
         <v>296</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="Q119" s="10" t="s">
         <v>296</v>
@@ -72509,10 +72509,10 @@
         <v>296</v>
       </c>
       <c r="S119" s="10" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="T119" s="10" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="U119" s="10" t="s">
         <v>296</v>
@@ -77690,8 +77690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -77789,16 +77789,16 @@
         <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E5">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -77806,19 +77806,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E6">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -77826,19 +77826,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -77846,19 +77846,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E8">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -77866,19 +77866,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="E9">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -77886,19 +77886,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E10">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -77906,16 +77906,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E11">
         <v>79</v>
@@ -77926,16 +77926,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E12">
         <v>159</v>
@@ -77946,16 +77946,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E13">
         <v>149</v>
@@ -77966,16 +77966,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E14">
         <v>149</v>
@@ -77986,16 +77986,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E15">
         <v>99</v>
@@ -78006,16 +78006,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16">
         <v>129</v>
@@ -78026,16 +78026,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E17">
         <v>149</v>
@@ -78046,7 +78046,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>296</v>
@@ -78055,7 +78055,7 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E18">
         <v>199</v>
@@ -78066,16 +78066,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="E19">
         <v>549</v>
@@ -78086,16 +78086,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="E20">
         <v>899</v>
@@ -78106,16 +78106,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="E21">
         <v>1799</v>
@@ -78126,16 +78126,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E22">
         <v>299</v>
@@ -78146,16 +78146,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E23">
         <v>799</v>
@@ -78166,16 +78166,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E24">
         <v>1349</v>
@@ -78186,16 +78186,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>2699</v>

--- a/Element Profiles/Fixed Camera-Element_Profile.xlsx
+++ b/Element Profiles/Fixed Camera-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2092B401-F563-8846-B5BC-9D115FC9E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E1A08-230B-324D-A8C1-85D21A964FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -1106,9 +1106,6 @@
     <t>PoE++ (802.3bt) Injector, GigE</t>
   </si>
   <si>
-    <t>ACC–POE–60W</t>
-  </si>
-  <si>
     <t>Accessory11</t>
   </si>
   <si>
@@ -1254,6 +1251,9 @@
   </si>
   <si>
     <t>Accessory28</t>
+  </si>
+  <si>
+    <t>ACC–POE–90W</t>
   </si>
 </sst>
 </file>
@@ -1463,11 +1463,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,6 +1470,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1785,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="X119" sqref="X119"/>
     </sheetView>
   </sheetViews>
@@ -1827,1015 +1827,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="14"/>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14"/>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14"/>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
-      <c r="NC1" s="14"/>
-      <c r="ND1" s="14"/>
-      <c r="NE1" s="14"/>
-      <c r="NF1" s="14"/>
-      <c r="NG1" s="14"/>
-      <c r="NH1" s="14"/>
-      <c r="NI1" s="14"/>
-      <c r="NJ1" s="14"/>
-      <c r="NK1" s="14"/>
-      <c r="NL1" s="14"/>
-      <c r="NM1" s="14"/>
-      <c r="NN1" s="14"/>
-      <c r="NO1" s="14"/>
-      <c r="NP1" s="14"/>
-      <c r="NQ1" s="14"/>
-      <c r="NR1" s="14"/>
-      <c r="NS1" s="14"/>
-      <c r="NT1" s="14"/>
-      <c r="NU1" s="14"/>
-      <c r="NV1" s="14"/>
-      <c r="NW1" s="14"/>
-      <c r="NX1" s="14"/>
-      <c r="NY1" s="14"/>
-      <c r="NZ1" s="14"/>
-      <c r="OA1" s="14"/>
-      <c r="OB1" s="14"/>
-      <c r="OC1" s="14"/>
-      <c r="OD1" s="14"/>
-      <c r="OE1" s="14"/>
-      <c r="OF1" s="14"/>
-      <c r="OG1" s="14"/>
-      <c r="OH1" s="14"/>
-      <c r="OI1" s="14"/>
-      <c r="OJ1" s="14"/>
-      <c r="OK1" s="14"/>
-      <c r="OL1" s="14"/>
-      <c r="OM1" s="14"/>
-      <c r="ON1" s="14"/>
-      <c r="OO1" s="14"/>
-      <c r="OP1" s="14"/>
-      <c r="OQ1" s="14"/>
-      <c r="OR1" s="14"/>
-      <c r="OS1" s="14"/>
-      <c r="OT1" s="14"/>
-      <c r="OU1" s="14"/>
-      <c r="OV1" s="14"/>
-      <c r="OW1" s="14"/>
-      <c r="OX1" s="14"/>
-      <c r="OY1" s="14"/>
-      <c r="OZ1" s="14"/>
-      <c r="PA1" s="14"/>
-      <c r="PB1" s="14"/>
-      <c r="PC1" s="14"/>
-      <c r="PD1" s="14"/>
-      <c r="PE1" s="14"/>
-      <c r="PF1" s="14"/>
-      <c r="PG1" s="14"/>
-      <c r="PH1" s="14"/>
-      <c r="PI1" s="14"/>
-      <c r="PJ1" s="14"/>
-      <c r="PK1" s="14"/>
-      <c r="PL1" s="14"/>
-      <c r="PM1" s="14"/>
-      <c r="PN1" s="14"/>
-      <c r="PO1" s="14"/>
-      <c r="PP1" s="14"/>
-      <c r="PQ1" s="14"/>
-      <c r="PR1" s="14"/>
-      <c r="PS1" s="14"/>
-      <c r="PT1" s="14"/>
-      <c r="PU1" s="14"/>
-      <c r="PV1" s="14"/>
-      <c r="PW1" s="14"/>
-      <c r="PX1" s="14"/>
-      <c r="PY1" s="14"/>
-      <c r="PZ1" s="14"/>
-      <c r="QA1" s="14"/>
-      <c r="QB1" s="14"/>
-      <c r="QC1" s="14"/>
-      <c r="QD1" s="14"/>
-      <c r="QE1" s="14"/>
-      <c r="QF1" s="14"/>
-      <c r="QG1" s="14"/>
-      <c r="QH1" s="14"/>
-      <c r="QI1" s="14"/>
-      <c r="QJ1" s="14"/>
-      <c r="QK1" s="14"/>
-      <c r="QL1" s="14"/>
-      <c r="QM1" s="14"/>
-      <c r="QN1" s="14"/>
-      <c r="QO1" s="14"/>
-      <c r="QP1" s="14"/>
-      <c r="QQ1" s="14"/>
-      <c r="QR1" s="14"/>
-      <c r="QS1" s="14"/>
-      <c r="QT1" s="14"/>
-      <c r="QU1" s="14"/>
-      <c r="QV1" s="14"/>
-      <c r="QW1" s="14"/>
-      <c r="QX1" s="14"/>
-      <c r="QY1" s="14"/>
-      <c r="QZ1" s="14"/>
-      <c r="RA1" s="14"/>
-      <c r="RB1" s="14"/>
-      <c r="RC1" s="14"/>
-      <c r="RD1" s="14"/>
-      <c r="RE1" s="14"/>
-      <c r="RF1" s="14"/>
-      <c r="RG1" s="14"/>
-      <c r="RH1" s="14"/>
-      <c r="RI1" s="14"/>
-      <c r="RJ1" s="14"/>
-      <c r="RK1" s="14"/>
-      <c r="RL1" s="14"/>
-      <c r="RM1" s="14"/>
-      <c r="RN1" s="14"/>
-      <c r="RO1" s="14"/>
-      <c r="RP1" s="14"/>
-      <c r="RQ1" s="14"/>
-      <c r="RR1" s="14"/>
-      <c r="RS1" s="14"/>
-      <c r="RT1" s="14"/>
-      <c r="RU1" s="14"/>
-      <c r="RV1" s="14"/>
-      <c r="RW1" s="14"/>
-      <c r="RX1" s="14"/>
-      <c r="RY1" s="14"/>
-      <c r="RZ1" s="14"/>
-      <c r="SA1" s="14"/>
-      <c r="SB1" s="14"/>
-      <c r="SC1" s="14"/>
-      <c r="SD1" s="14"/>
-      <c r="SE1" s="14"/>
-      <c r="SF1" s="14"/>
-      <c r="SG1" s="14"/>
-      <c r="SH1" s="14"/>
-      <c r="SI1" s="14"/>
-      <c r="SJ1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="18"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="14"/>
-      <c r="NS2" s="14"/>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="14"/>
-      <c r="NV2" s="14"/>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="14"/>
-      <c r="NY2" s="14"/>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="14"/>
-      <c r="OB2" s="14"/>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="14"/>
-      <c r="OE2" s="14"/>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="14"/>
-      <c r="OH2" s="14"/>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="14"/>
-      <c r="OK2" s="14"/>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="14"/>
-      <c r="ON2" s="14"/>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="14"/>
-      <c r="OQ2" s="14"/>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="14"/>
-      <c r="OT2" s="14"/>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="14"/>
-      <c r="OW2" s="14"/>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="14"/>
-      <c r="OZ2" s="14"/>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="14"/>
-      <c r="PC2" s="14"/>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="14"/>
-      <c r="PF2" s="14"/>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="14"/>
-      <c r="PI2" s="14"/>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="14"/>
-      <c r="PL2" s="14"/>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="14"/>
-      <c r="PO2" s="14"/>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="14"/>
-      <c r="PR2" s="14"/>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="14"/>
-      <c r="PU2" s="14"/>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="14"/>
-      <c r="PX2" s="14"/>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="14"/>
-      <c r="QA2" s="14"/>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="14"/>
-      <c r="QD2" s="14"/>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="14"/>
-      <c r="QG2" s="14"/>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="14"/>
-      <c r="QJ2" s="14"/>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="14"/>
-      <c r="QM2" s="14"/>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="14"/>
-      <c r="QP2" s="14"/>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="14"/>
-      <c r="QS2" s="14"/>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="14"/>
-      <c r="QV2" s="14"/>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="14"/>
-      <c r="QY2" s="14"/>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="14"/>
-      <c r="RB2" s="14"/>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="14"/>
-      <c r="RE2" s="14"/>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="14"/>
-      <c r="RH2" s="14"/>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="14"/>
-      <c r="RK2" s="14"/>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="14"/>
-      <c r="RN2" s="14"/>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="14"/>
-      <c r="RQ2" s="14"/>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="14"/>
-      <c r="RT2" s="14"/>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="14"/>
-      <c r="RW2" s="14"/>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="14"/>
-      <c r="RZ2" s="14"/>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="14"/>
-      <c r="SC2" s="14"/>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="14"/>
-      <c r="SF2" s="14"/>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="14"/>
-      <c r="SI2" s="14"/>
-      <c r="SJ2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="17"/>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="17"/>
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="17"/>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="17"/>
+      <c r="EH2" s="17"/>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="17"/>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="17"/>
+      <c r="EX2" s="17"/>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="17"/>
+      <c r="FF2" s="17"/>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="17"/>
+      <c r="FN2" s="17"/>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="17"/>
+      <c r="FV2" s="17"/>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="17"/>
+      <c r="GD2" s="17"/>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="17"/>
+      <c r="GL2" s="17"/>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="17"/>
+      <c r="GT2" s="17"/>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="17"/>
+      <c r="HB2" s="17"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="17"/>
+      <c r="HJ2" s="17"/>
+      <c r="HK2" s="17"/>
+      <c r="HL2" s="17"/>
+      <c r="HM2" s="17"/>
+      <c r="HN2" s="17"/>
+      <c r="HO2" s="17"/>
+      <c r="HP2" s="17"/>
+      <c r="HQ2" s="17"/>
+      <c r="HR2" s="17"/>
+      <c r="HS2" s="17"/>
+      <c r="HT2" s="17"/>
+      <c r="HU2" s="17"/>
+      <c r="HV2" s="17"/>
+      <c r="HW2" s="17"/>
+      <c r="HX2" s="17"/>
+      <c r="HY2" s="17"/>
+      <c r="HZ2" s="17"/>
+      <c r="IA2" s="17"/>
+      <c r="IB2" s="17"/>
+      <c r="IC2" s="17"/>
+      <c r="ID2" s="17"/>
+      <c r="IE2" s="17"/>
+      <c r="IF2" s="17"/>
+      <c r="IG2" s="17"/>
+      <c r="IH2" s="17"/>
+      <c r="II2" s="17"/>
+      <c r="IJ2" s="17"/>
+      <c r="IK2" s="17"/>
+      <c r="IL2" s="17"/>
+      <c r="IM2" s="17"/>
+      <c r="IN2" s="17"/>
+      <c r="IO2" s="17"/>
+      <c r="IP2" s="17"/>
+      <c r="IQ2" s="17"/>
+      <c r="IR2" s="17"/>
+      <c r="IS2" s="17"/>
+      <c r="IT2" s="17"/>
+      <c r="IU2" s="17"/>
+      <c r="IV2" s="17"/>
+      <c r="IW2" s="17"/>
+      <c r="IX2" s="17"/>
+      <c r="IY2" s="17"/>
+      <c r="IZ2" s="17"/>
+      <c r="JA2" s="17"/>
+      <c r="JB2" s="17"/>
+      <c r="JC2" s="17"/>
+      <c r="JD2" s="17"/>
+      <c r="JE2" s="17"/>
+      <c r="JF2" s="17"/>
+      <c r="JG2" s="17"/>
+      <c r="JH2" s="17"/>
+      <c r="JI2" s="17"/>
+      <c r="JJ2" s="17"/>
+      <c r="JK2" s="17"/>
+      <c r="JL2" s="17"/>
+      <c r="JM2" s="17"/>
+      <c r="JN2" s="17"/>
+      <c r="JO2" s="17"/>
+      <c r="JP2" s="17"/>
+      <c r="JQ2" s="17"/>
+      <c r="JR2" s="17"/>
+      <c r="JS2" s="17"/>
+      <c r="JT2" s="17"/>
+      <c r="JU2" s="17"/>
+      <c r="JV2" s="17"/>
+      <c r="JW2" s="17"/>
+      <c r="JX2" s="17"/>
+      <c r="JY2" s="17"/>
+      <c r="JZ2" s="17"/>
+      <c r="KA2" s="17"/>
+      <c r="KB2" s="17"/>
+      <c r="KC2" s="17"/>
+      <c r="KD2" s="17"/>
+      <c r="KE2" s="17"/>
+      <c r="KF2" s="17"/>
+      <c r="KG2" s="17"/>
+      <c r="KH2" s="17"/>
+      <c r="KI2" s="17"/>
+      <c r="KJ2" s="17"/>
+      <c r="KK2" s="17"/>
+      <c r="KL2" s="17"/>
+      <c r="KM2" s="17"/>
+      <c r="KN2" s="17"/>
+      <c r="KO2" s="17"/>
+      <c r="KP2" s="17"/>
+      <c r="KQ2" s="17"/>
+      <c r="KR2" s="17"/>
+      <c r="KS2" s="17"/>
+      <c r="KT2" s="17"/>
+      <c r="KU2" s="17"/>
+      <c r="KV2" s="17"/>
+      <c r="KW2" s="17"/>
+      <c r="KX2" s="17"/>
+      <c r="KY2" s="17"/>
+      <c r="KZ2" s="17"/>
+      <c r="LA2" s="17"/>
+      <c r="LB2" s="17"/>
+      <c r="LC2" s="17"/>
+      <c r="LD2" s="17"/>
+      <c r="LE2" s="17"/>
+      <c r="LF2" s="17"/>
+      <c r="LG2" s="17"/>
+      <c r="LH2" s="17"/>
+      <c r="LI2" s="17"/>
+      <c r="LJ2" s="17"/>
+      <c r="LK2" s="17"/>
+      <c r="LL2" s="17"/>
+      <c r="LM2" s="17"/>
+      <c r="LN2" s="17"/>
+      <c r="LO2" s="17"/>
+      <c r="LP2" s="17"/>
+      <c r="LQ2" s="17"/>
+      <c r="LR2" s="17"/>
+      <c r="LS2" s="17"/>
+      <c r="LT2" s="17"/>
+      <c r="LU2" s="17"/>
+      <c r="LV2" s="17"/>
+      <c r="LW2" s="17"/>
+      <c r="LX2" s="17"/>
+      <c r="LY2" s="17"/>
+      <c r="LZ2" s="17"/>
+      <c r="MA2" s="17"/>
+      <c r="MB2" s="17"/>
+      <c r="MC2" s="17"/>
+      <c r="MD2" s="17"/>
+      <c r="ME2" s="17"/>
+      <c r="MF2" s="17"/>
+      <c r="MG2" s="17"/>
+      <c r="MH2" s="17"/>
+      <c r="MI2" s="17"/>
+      <c r="MJ2" s="17"/>
+      <c r="MK2" s="17"/>
+      <c r="ML2" s="17"/>
+      <c r="MM2" s="17"/>
+      <c r="MN2" s="17"/>
+      <c r="MO2" s="17"/>
+      <c r="MP2" s="17"/>
+      <c r="MQ2" s="17"/>
+      <c r="MR2" s="17"/>
+      <c r="MS2" s="17"/>
+      <c r="MT2" s="17"/>
+      <c r="MU2" s="17"/>
+      <c r="MV2" s="17"/>
+      <c r="MW2" s="17"/>
+      <c r="MX2" s="17"/>
+      <c r="MY2" s="17"/>
+      <c r="MZ2" s="17"/>
+      <c r="NA2" s="17"/>
+      <c r="NB2" s="17"/>
+      <c r="NC2" s="17"/>
+      <c r="ND2" s="17"/>
+      <c r="NE2" s="17"/>
+      <c r="NF2" s="17"/>
+      <c r="NG2" s="17"/>
+      <c r="NH2" s="17"/>
+      <c r="NI2" s="17"/>
+      <c r="NJ2" s="17"/>
+      <c r="NK2" s="17"/>
+      <c r="NL2" s="17"/>
+      <c r="NM2" s="17"/>
+      <c r="NN2" s="17"/>
+      <c r="NO2" s="17"/>
+      <c r="NP2" s="17"/>
+      <c r="NQ2" s="17"/>
+      <c r="NR2" s="17"/>
+      <c r="NS2" s="17"/>
+      <c r="NT2" s="17"/>
+      <c r="NU2" s="17"/>
+      <c r="NV2" s="17"/>
+      <c r="NW2" s="17"/>
+      <c r="NX2" s="17"/>
+      <c r="NY2" s="17"/>
+      <c r="NZ2" s="17"/>
+      <c r="OA2" s="17"/>
+      <c r="OB2" s="17"/>
+      <c r="OC2" s="17"/>
+      <c r="OD2" s="17"/>
+      <c r="OE2" s="17"/>
+      <c r="OF2" s="17"/>
+      <c r="OG2" s="17"/>
+      <c r="OH2" s="17"/>
+      <c r="OI2" s="17"/>
+      <c r="OJ2" s="17"/>
+      <c r="OK2" s="17"/>
+      <c r="OL2" s="17"/>
+      <c r="OM2" s="17"/>
+      <c r="ON2" s="17"/>
+      <c r="OO2" s="17"/>
+      <c r="OP2" s="17"/>
+      <c r="OQ2" s="17"/>
+      <c r="OR2" s="17"/>
+      <c r="OS2" s="17"/>
+      <c r="OT2" s="17"/>
+      <c r="OU2" s="17"/>
+      <c r="OV2" s="17"/>
+      <c r="OW2" s="17"/>
+      <c r="OX2" s="17"/>
+      <c r="OY2" s="17"/>
+      <c r="OZ2" s="17"/>
+      <c r="PA2" s="17"/>
+      <c r="PB2" s="17"/>
+      <c r="PC2" s="17"/>
+      <c r="PD2" s="17"/>
+      <c r="PE2" s="17"/>
+      <c r="PF2" s="17"/>
+      <c r="PG2" s="17"/>
+      <c r="PH2" s="17"/>
+      <c r="PI2" s="17"/>
+      <c r="PJ2" s="17"/>
+      <c r="PK2" s="17"/>
+      <c r="PL2" s="17"/>
+      <c r="PM2" s="17"/>
+      <c r="PN2" s="17"/>
+      <c r="PO2" s="17"/>
+      <c r="PP2" s="17"/>
+      <c r="PQ2" s="17"/>
+      <c r="PR2" s="17"/>
+      <c r="PS2" s="17"/>
+      <c r="PT2" s="17"/>
+      <c r="PU2" s="17"/>
+      <c r="PV2" s="17"/>
+      <c r="PW2" s="17"/>
+      <c r="PX2" s="17"/>
+      <c r="PY2" s="17"/>
+      <c r="PZ2" s="17"/>
+      <c r="QA2" s="17"/>
+      <c r="QB2" s="17"/>
+      <c r="QC2" s="17"/>
+      <c r="QD2" s="17"/>
+      <c r="QE2" s="17"/>
+      <c r="QF2" s="17"/>
+      <c r="QG2" s="17"/>
+      <c r="QH2" s="17"/>
+      <c r="QI2" s="17"/>
+      <c r="QJ2" s="17"/>
+      <c r="QK2" s="17"/>
+      <c r="QL2" s="17"/>
+      <c r="QM2" s="17"/>
+      <c r="QN2" s="17"/>
+      <c r="QO2" s="17"/>
+      <c r="QP2" s="17"/>
+      <c r="QQ2" s="17"/>
+      <c r="QR2" s="17"/>
+      <c r="QS2" s="17"/>
+      <c r="QT2" s="17"/>
+      <c r="QU2" s="17"/>
+      <c r="QV2" s="17"/>
+      <c r="QW2" s="17"/>
+      <c r="QX2" s="17"/>
+      <c r="QY2" s="17"/>
+      <c r="QZ2" s="17"/>
+      <c r="RA2" s="17"/>
+      <c r="RB2" s="17"/>
+      <c r="RC2" s="17"/>
+      <c r="RD2" s="17"/>
+      <c r="RE2" s="17"/>
+      <c r="RF2" s="17"/>
+      <c r="RG2" s="17"/>
+      <c r="RH2" s="17"/>
+      <c r="RI2" s="17"/>
+      <c r="RJ2" s="17"/>
+      <c r="RK2" s="17"/>
+      <c r="RL2" s="17"/>
+      <c r="RM2" s="17"/>
+      <c r="RN2" s="17"/>
+      <c r="RO2" s="17"/>
+      <c r="RP2" s="17"/>
+      <c r="RQ2" s="17"/>
+      <c r="RR2" s="17"/>
+      <c r="RS2" s="17"/>
+      <c r="RT2" s="17"/>
+      <c r="RU2" s="17"/>
+      <c r="RV2" s="17"/>
+      <c r="RW2" s="17"/>
+      <c r="RX2" s="17"/>
+      <c r="RY2" s="17"/>
+      <c r="RZ2" s="17"/>
+      <c r="SA2" s="17"/>
+      <c r="SB2" s="17"/>
+      <c r="SC2" s="17"/>
+      <c r="SD2" s="17"/>
+      <c r="SE2" s="17"/>
+      <c r="SF2" s="17"/>
+      <c r="SG2" s="17"/>
+      <c r="SH2" s="17"/>
+      <c r="SI2" s="17"/>
+      <c r="SJ2" s="18"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -3400,7 +3400,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3962,7 +3962,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="SJ5" s="5"/>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
@@ -5974,7 +5974,7 @@
       </c>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="SJ9" s="5"/>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>77</v>
       </c>
@@ -9160,7 +9160,7 @@
       </c>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>79</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="SJ11" s="5"/>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
@@ -11226,7 +11226,7 @@
       </c>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>92</v>
       </c>
@@ -13292,7 +13292,7 @@
       </c>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>101</v>
       </c>
@@ -14798,7 +14798,7 @@
       </c>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4" t="s">
         <v>107</v>
       </c>
@@ -16304,7 +16304,7 @@
       </c>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -16812,7 +16812,7 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>115</v>
       </c>
@@ -17372,7 +17372,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
         <v>117</v>
       </c>
@@ -17878,7 +17878,7 @@
       <c r="SJ19" s="7"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>118</v>
       </c>
@@ -18384,7 +18384,7 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>119</v>
       </c>
@@ -18890,7 +18890,7 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>120</v>
       </c>
@@ -19396,7 +19396,7 @@
       <c r="SJ22" s="5"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6" t="s">
         <v>121</v>
       </c>
@@ -19902,7 +19902,7 @@
       <c r="SJ23" s="7"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>122</v>
       </c>
@@ -20408,7 +20408,7 @@
       <c r="SJ24" s="5"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>123</v>
       </c>
@@ -20914,7 +20914,7 @@
       <c r="SJ25" s="7"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>124</v>
       </c>
@@ -21474,7 +21474,7 @@
       <c r="SJ26" s="5"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>127</v>
       </c>
@@ -21980,7 +21980,7 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
         <v>128</v>
       </c>
@@ -23486,7 +23486,7 @@
       </c>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
         <v>132</v>
       </c>
@@ -23992,7 +23992,7 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4" t="s">
         <v>133</v>
       </c>
@@ -24498,7 +24498,7 @@
       <c r="SJ30" s="5"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -25060,7 +25060,7 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
@@ -25620,7 +25620,7 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>143</v>
       </c>
@@ -26180,7 +26180,7 @@
       <c r="SJ33" s="5"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6" t="s">
         <v>144</v>
       </c>
@@ -26740,7 +26740,7 @@
       <c r="SJ34" s="7"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>146</v>
       </c>
@@ -27300,7 +27300,7 @@
       <c r="SJ35" s="5"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6" t="s">
         <v>147</v>
       </c>
@@ -27806,7 +27806,7 @@
       <c r="SJ36" s="7"/>
     </row>
     <row r="37" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>148</v>
       </c>
@@ -28366,7 +28366,7 @@
       <c r="SJ37" s="5"/>
     </row>
     <row r="38" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6" t="s">
         <v>149</v>
       </c>
@@ -28872,7 +28872,7 @@
       <c r="SJ38" s="7"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
         <v>150</v>
       </c>
@@ -29378,7 +29378,7 @@
       <c r="SJ39" s="5"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="6" t="s">
         <v>123</v>
       </c>
@@ -29884,7 +29884,7 @@
       <c r="SJ40" s="7"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
         <v>151</v>
       </c>
@@ -30444,7 +30444,7 @@
       <c r="SJ41" s="5"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
         <v>153</v>
       </c>
@@ -31004,7 +31004,7 @@
       <c r="SJ42" s="5"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="6" t="s">
         <v>154</v>
       </c>
@@ -31514,7 +31514,7 @@
       <c r="SJ43" s="7"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
@@ -32068,7 +32068,7 @@
       <c r="SJ44" s="5"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="6" t="s">
         <v>156</v>
       </c>
@@ -32574,7 +32574,7 @@
       <c r="SJ45" s="7"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
         <v>157</v>
       </c>
@@ -33080,7 +33080,7 @@
       <c r="SJ46" s="5"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="6" t="s">
         <v>158</v>
       </c>
@@ -33620,7 +33620,7 @@
       <c r="SJ47" s="7"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
         <v>159</v>
       </c>
@@ -34164,7 +34164,7 @@
       <c r="SJ48" s="5"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="6" t="s">
         <v>160</v>
       </c>
@@ -34704,7 +34704,7 @@
       <c r="SJ49" s="7"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>161</v>
       </c>
@@ -35210,7 +35210,7 @@
       <c r="SJ50" s="5"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="6" t="s">
         <v>162</v>
       </c>
@@ -35716,7 +35716,7 @@
       <c r="SJ51" s="7"/>
     </row>
     <row r="52" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
         <v>123</v>
       </c>
@@ -36222,7 +36222,7 @@
       <c r="SJ52" s="5"/>
     </row>
     <row r="53" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C53" s="17"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6" t="s">
         <v>163</v>
       </c>
@@ -36732,7 +36732,7 @@
       <c r="SJ53" s="7"/>
     </row>
     <row r="54" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
         <v>164</v>
       </c>
@@ -37242,7 +37242,7 @@
       <c r="SJ54" s="5"/>
     </row>
     <row r="55" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C55" s="17"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6" t="s">
         <v>165</v>
       </c>
@@ -37748,7 +37748,7 @@
       <c r="SJ55" s="7"/>
     </row>
     <row r="56" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C56" s="17"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>166</v>
       </c>
@@ -38284,7 +38284,7 @@
       <c r="SJ56" s="5"/>
     </row>
     <row r="57" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C57" s="17"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>167</v>
       </c>
@@ -38844,7 +38844,7 @@
       <c r="SJ57" s="5"/>
     </row>
     <row r="58" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C58" s="17"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
         <v>170</v>
       </c>
@@ -39404,7 +39404,7 @@
       <c r="SJ58" s="5"/>
     </row>
     <row r="59" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C59" s="17"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
         <v>175</v>
       </c>
@@ -39964,7 +39964,7 @@
       <c r="SJ59" s="5"/>
     </row>
     <row r="60" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C60" s="17"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="6" t="s">
         <v>176</v>
       </c>
@@ -40524,7 +40524,7 @@
       <c r="SJ60" s="7"/>
     </row>
     <row r="61" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C61" s="17"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4" t="s">
         <v>177</v>
       </c>
@@ -41084,7 +41084,7 @@
       <c r="SJ61" s="5"/>
     </row>
     <row r="62" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C62" s="17"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="6" t="s">
         <v>178</v>
       </c>
@@ -41644,7 +41644,7 @@
       <c r="SJ62" s="7"/>
     </row>
     <row r="63" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C63" s="17"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4" t="s">
         <v>179</v>
       </c>
@@ -42182,7 +42182,7 @@
       <c r="SJ63" s="5"/>
     </row>
     <row r="64" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C64" s="17"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="6" t="s">
         <v>180</v>
       </c>
@@ -42688,7 +42688,7 @@
       <c r="SJ64" s="7"/>
     </row>
     <row r="65" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C65" s="17"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="4" t="s">
         <v>181</v>
       </c>
@@ -43194,7 +43194,7 @@
       <c r="SJ65" s="5"/>
     </row>
     <row r="66" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C66" s="17"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="6" t="s">
         <v>182</v>
       </c>
@@ -43700,7 +43700,7 @@
       <c r="SJ66" s="7"/>
     </row>
     <row r="67" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C67" s="17"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="4" t="s">
         <v>183</v>
       </c>
@@ -44206,7 +44206,7 @@
       <c r="SJ67" s="5"/>
     </row>
     <row r="68" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C68" s="17"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="6" t="s">
         <v>184</v>
       </c>
@@ -44712,7 +44712,7 @@
       <c r="SJ68" s="7"/>
     </row>
     <row r="69" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C69" s="17"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4" t="s">
         <v>185</v>
       </c>
@@ -45218,7 +45218,7 @@
       <c r="SJ69" s="5"/>
     </row>
     <row r="70" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C70" s="17"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="6" t="s">
         <v>123</v>
       </c>
@@ -45724,7 +45724,7 @@
       <c r="SJ70" s="7"/>
     </row>
     <row r="71" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C71" s="17"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="4" t="s">
         <v>186</v>
       </c>
@@ -46284,7 +46284,7 @@
       <c r="SJ71" s="5"/>
     </row>
     <row r="72" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C72" s="17"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
         <v>191</v>
       </c>
@@ -46790,7 +46790,7 @@
       <c r="SJ72" s="5"/>
     </row>
     <row r="73" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C73" s="17"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4" t="s">
         <v>192</v>
       </c>
@@ -47350,7 +47350,7 @@
       <c r="SJ73" s="5"/>
     </row>
     <row r="74" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C74" s="17"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4" t="s">
         <v>194</v>
       </c>
@@ -47910,7 +47910,7 @@
       <c r="SJ74" s="5"/>
     </row>
     <row r="75" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C75" s="17"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="6" t="s">
         <v>195</v>
       </c>
@@ -48416,7 +48416,7 @@
       <c r="SJ75" s="7"/>
     </row>
     <row r="76" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C76" s="17"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>196</v>
       </c>
@@ -48976,7 +48976,7 @@
       <c r="SJ76" s="5"/>
     </row>
     <row r="77" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C77" s="17"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="6" t="s">
         <v>197</v>
       </c>
@@ -49482,7 +49482,7 @@
       <c r="SJ77" s="7"/>
     </row>
     <row r="78" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C78" s="17"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4" t="s">
         <v>198</v>
       </c>
@@ -49988,7 +49988,7 @@
       <c r="SJ78" s="5"/>
     </row>
     <row r="79" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C79" s="17"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="6" t="s">
         <v>199</v>
       </c>
@@ -50494,7 +50494,7 @@
       <c r="SJ79" s="7"/>
     </row>
     <row r="80" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C80" s="17"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="4" t="s">
         <v>123</v>
       </c>
@@ -51000,7 +51000,7 @@
       <c r="SJ80" s="5"/>
     </row>
     <row r="81" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C81" s="17"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4" t="s">
         <v>200</v>
       </c>
@@ -51536,7 +51536,7 @@
       <c r="SJ81" s="5"/>
     </row>
     <row r="82" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C82" s="17"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4" t="s">
         <v>204</v>
       </c>
@@ -52096,7 +52096,7 @@
       <c r="SJ82" s="5"/>
     </row>
     <row r="83" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C83" s="17"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="6" t="s">
         <v>205</v>
       </c>
@@ -52602,7 +52602,7 @@
       <c r="SJ83" s="7"/>
     </row>
     <row r="84" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C84" s="17"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="4" t="s">
         <v>206</v>
       </c>
@@ -53108,7 +53108,7 @@
       <c r="SJ84" s="5"/>
     </row>
     <row r="85" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C85" s="17"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="6" t="s">
         <v>207</v>
       </c>
@@ -53614,7 +53614,7 @@
       <c r="SJ85" s="7"/>
     </row>
     <row r="86" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C86" s="17"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="4" t="s">
         <v>208</v>
       </c>
@@ -54120,7 +54120,7 @@
       <c r="SJ86" s="5"/>
     </row>
     <row r="87" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C87" s="17"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="6" t="s">
         <v>209</v>
       </c>
@@ -54626,7 +54626,7 @@
       <c r="SJ87" s="7"/>
     </row>
     <row r="88" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C88" s="17"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="4" t="s">
         <v>123</v>
       </c>
@@ -55132,7 +55132,7 @@
       <c r="SJ88" s="5"/>
     </row>
     <row r="89" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C89" s="17"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>210</v>
       </c>
@@ -55692,7 +55692,7 @@
       <c r="SJ89" s="5"/>
     </row>
     <row r="90" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C90" s="17"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4" t="s">
         <v>216</v>
       </c>
@@ -56252,7 +56252,7 @@
       <c r="SJ90" s="5"/>
     </row>
     <row r="91" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C91" s="17"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="6" t="s">
         <v>217</v>
       </c>
@@ -56774,7 +56774,7 @@
       <c r="SJ91" s="7"/>
     </row>
     <row r="92" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C92" s="17"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="4" t="s">
         <v>218</v>
       </c>
@@ -57296,7 +57296,7 @@
       <c r="SJ92" s="5"/>
     </row>
     <row r="93" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C93" s="17"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="6" t="s">
         <v>219</v>
       </c>
@@ -57802,7 +57802,7 @@
       <c r="SJ93" s="7"/>
     </row>
     <row r="94" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C94" s="17"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4" t="s">
         <v>220</v>
       </c>
@@ -58308,7 +58308,7 @@
       <c r="SJ94" s="5"/>
     </row>
     <row r="95" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C95" s="17"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="6" t="s">
         <v>221</v>
       </c>
@@ -58814,7 +58814,7 @@
       <c r="SJ95" s="7"/>
     </row>
     <row r="96" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C96" s="17"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="4" t="s">
         <v>222</v>
       </c>
@@ -59320,7 +59320,7 @@
       <c r="SJ96" s="5"/>
     </row>
     <row r="97" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C97" s="17"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="6" t="s">
         <v>123</v>
       </c>
@@ -59826,7 +59826,7 @@
       <c r="SJ97" s="7"/>
     </row>
     <row r="98" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C98" s="17"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="4" t="s">
         <v>223</v>
       </c>
@@ -60332,7 +60332,7 @@
       <c r="SJ98" s="5"/>
     </row>
     <row r="99" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C99" s="17"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="4" t="s">
         <v>224</v>
       </c>
@@ -60892,7 +60892,7 @@
       <c r="SJ99" s="5"/>
     </row>
     <row r="100" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C100" s="17"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="4" t="s">
         <v>226</v>
       </c>
@@ -61452,7 +61452,7 @@
       <c r="SJ100" s="5"/>
     </row>
     <row r="101" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C101" s="17"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="6" t="s">
         <v>227</v>
       </c>
@@ -62012,7 +62012,7 @@
       <c r="SJ101" s="7"/>
     </row>
     <row r="102" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C102" s="17"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="4" t="s">
         <v>228</v>
       </c>
@@ -62518,7 +62518,7 @@
       <c r="SJ102" s="5"/>
     </row>
     <row r="103" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C103" s="17"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="6" t="s">
         <v>229</v>
       </c>
@@ -63024,7 +63024,7 @@
       <c r="SJ103" s="7"/>
     </row>
     <row r="104" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C104" s="17"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="4" t="s">
         <v>230</v>
       </c>
@@ -63530,7 +63530,7 @@
       <c r="SJ104" s="5"/>
     </row>
     <row r="105" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C105" s="17"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="6" t="s">
         <v>231</v>
       </c>
@@ -64036,7 +64036,7 @@
       <c r="SJ105" s="7"/>
     </row>
     <row r="106" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C106" s="17"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="4" t="s">
         <v>232</v>
       </c>
@@ -64596,7 +64596,7 @@
       <c r="SJ106" s="5"/>
     </row>
     <row r="107" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C107" s="17"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="6" t="s">
         <v>233</v>
       </c>
@@ -65102,7 +65102,7 @@
       <c r="SJ107" s="7"/>
     </row>
     <row r="108" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C108" s="17"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4" t="s">
         <v>123</v>
       </c>
@@ -65608,7 +65608,7 @@
       <c r="SJ108" s="5"/>
     </row>
     <row r="109" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C109" s="18"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4" t="s">
         <v>234</v>
       </c>
@@ -66114,7 +66114,7 @@
       <c r="SJ109" s="5"/>
     </row>
     <row r="110" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="13" t="s">
         <v>235</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -66622,7 +66622,7 @@
       <c r="SJ110" s="5"/>
     </row>
     <row r="111" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -68130,7 +68130,7 @@
       </c>
     </row>
     <row r="112" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C112" s="17"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="4" t="s">
         <v>241</v>
       </c>
@@ -69636,7 +69636,7 @@
       </c>
     </row>
     <row r="113" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C113" s="17"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="4" t="s">
         <v>242</v>
       </c>
@@ -70142,7 +70142,7 @@
       <c r="SJ113" s="5"/>
     </row>
     <row r="114" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C114" s="18"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="8" t="s">
         <v>243</v>
       </c>
@@ -70648,7 +70648,7 @@
       <c r="SJ114" s="9"/>
     </row>
     <row r="115" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C115" s="16"/>
+      <c r="C115" s="13"/>
       <c r="D115" t="s">
         <v>244</v>
       </c>
@@ -71208,7 +71208,7 @@
       <c r="SJ115" s="10"/>
     </row>
     <row r="116" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C116" s="17"/>
+      <c r="C116" s="14"/>
       <c r="D116" t="s">
         <v>249</v>
       </c>
@@ -71768,7 +71768,7 @@
       <c r="SJ116" s="10"/>
     </row>
     <row r="117" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C117" s="17"/>
+      <c r="C117" s="14"/>
       <c r="D117" t="s">
         <v>254</v>
       </c>
@@ -72328,7 +72328,7 @@
       <c r="SJ117" s="10"/>
     </row>
     <row r="118" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C118" s="18"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="8" t="s">
         <v>282</v>
       </c>
@@ -72888,7 +72888,7 @@
       <c r="SJ118" s="11"/>
     </row>
     <row r="119" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -73450,7 +73450,7 @@
       <c r="SJ119" s="10"/>
     </row>
     <row r="120" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C120" s="17"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="4" t="s">
         <v>313</v>
       </c>
@@ -73972,7 +73972,7 @@
       <c r="SJ120" s="10"/>
     </row>
     <row r="121" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C121" s="17"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="4" t="s">
         <v>315</v>
       </c>
@@ -74478,7 +74478,7 @@
       <c r="SJ121" s="10"/>
     </row>
     <row r="122" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C122" s="17"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="4" t="s">
         <v>316</v>
       </c>
@@ -74984,7 +74984,7 @@
       <c r="SJ122" s="10"/>
     </row>
     <row r="123" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C123" s="17"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="4" t="s">
         <v>317</v>
       </c>
@@ -75490,7 +75490,7 @@
       <c r="SJ123" s="10"/>
     </row>
     <row r="124" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C124" s="17"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="4" t="s">
         <v>318</v>
       </c>
@@ -75996,7 +75996,7 @@
       <c r="SJ124" s="10"/>
     </row>
     <row r="125" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C125" s="17"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="4" t="s">
         <v>319</v>
       </c>
@@ -76502,7 +76502,7 @@
       <c r="SJ125" s="10"/>
     </row>
     <row r="126" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="4" t="s">
         <v>320</v>
       </c>
@@ -77008,7 +77008,7 @@
       <c r="SJ126" s="10"/>
     </row>
     <row r="127" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C127" s="17"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="4" t="s">
         <v>321</v>
       </c>
@@ -77514,7 +77514,7 @@
       <c r="SJ127" s="10"/>
     </row>
     <row r="128" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C128" s="18"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="8" t="s">
         <v>322</v>
       </c>
@@ -78134,8 +78134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -78359,10 +78359,10 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="E11">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -78370,16 +78370,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" t="s">
-        <v>359</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12">
         <v>129</v>
@@ -78390,16 +78390,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
         <v>361</v>
-      </c>
-      <c r="B13" t="s">
-        <v>362</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13">
         <v>99</v>
@@ -78410,16 +78410,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
         <v>364</v>
-      </c>
-      <c r="B14" t="s">
-        <v>365</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14">
         <v>99</v>
@@ -78430,16 +78430,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" t="s">
-        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E15">
         <v>149</v>
@@ -78450,16 +78450,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" t="s">
         <v>370</v>
-      </c>
-      <c r="B16" t="s">
-        <v>371</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16">
         <v>159</v>
@@ -78470,16 +78470,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" t="s">
         <v>373</v>
-      </c>
-      <c r="B17" t="s">
-        <v>374</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17">
         <v>79</v>
@@ -78490,16 +78490,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" t="s">
         <v>376</v>
-      </c>
-      <c r="B18" t="s">
-        <v>377</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E18">
         <v>79</v>
@@ -78510,7 +78510,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>314</v>
@@ -78519,7 +78519,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E19">
         <v>89</v>
@@ -78530,16 +78530,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
         <v>381</v>
-      </c>
-      <c r="B20" t="s">
-        <v>382</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E20">
         <v>199</v>
@@ -78550,16 +78550,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" t="s">
         <v>384</v>
-      </c>
-      <c r="B21" t="s">
-        <v>385</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21">
         <v>209</v>
@@ -78570,16 +78570,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" t="s">
         <v>387</v>
-      </c>
-      <c r="B22" t="s">
-        <v>388</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E22">
         <v>69</v>
@@ -78590,16 +78590,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" t="s">
         <v>390</v>
-      </c>
-      <c r="B23" t="s">
-        <v>391</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E23">
         <v>149</v>
@@ -78610,16 +78610,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
         <v>393</v>
-      </c>
-      <c r="B24" t="s">
-        <v>394</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24">
         <v>79</v>
@@ -78630,16 +78630,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" t="s">
         <v>396</v>
-      </c>
-      <c r="B25" t="s">
-        <v>397</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E25">
         <v>129</v>
@@ -78650,10 +78650,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -78670,10 +78670,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
@@ -78690,10 +78690,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -78710,10 +78710,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
